--- a/excel/FM.xlsx
+++ b/excel/FM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="239">
   <si>
     <t>Projekt</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Sigridsvej 46</t>
   </si>
   <si>
-    <t>56.1565956,10.1307686</t>
+    <t>56.156899, 10.135274</t>
   </si>
   <si>
     <t>Brabrand Elektricitetsselskab I/S</t>
@@ -176,6 +176,561 @@
   </si>
   <si>
     <t>56.161213, 10.139823</t>
+  </si>
+  <si>
+    <t>Motel Tre Ege</t>
+  </si>
+  <si>
+    <t>Møllevej 15</t>
+  </si>
+  <si>
+    <t>Erhvervsbyggerier</t>
+  </si>
+  <si>
+    <t>Leo Bødker Nielsen</t>
+  </si>
+  <si>
+    <t>56.154414, 10.086723</t>
+  </si>
+  <si>
+    <t>Huse for .. og ejendomsmægler</t>
+  </si>
+  <si>
+    <t>Røgelvej 1</t>
+  </si>
+  <si>
+    <t>Egon Hansen og Jens Hansen</t>
+  </si>
+  <si>
+    <t>56.152956, 10.127007</t>
+  </si>
+  <si>
+    <t>F.L. Bie Maskinfabrik</t>
+  </si>
+  <si>
+    <t>Holmstrupgårdsvej 1</t>
+  </si>
+  <si>
+    <t>56.164111, 10.119985</t>
+  </si>
+  <si>
+    <t>Brabrandhus</t>
+  </si>
+  <si>
+    <t>Hovedgaden 54</t>
+  </si>
+  <si>
+    <t>Gunnar Frank (?)</t>
+  </si>
+  <si>
+    <t>56.153726, 10.103720</t>
+  </si>
+  <si>
+    <t>Brabrandhus II</t>
+  </si>
+  <si>
+    <t>Hovedgaden 56 - 58</t>
+  </si>
+  <si>
+    <t>56.153523, 10.103490</t>
+  </si>
+  <si>
+    <t>Udvidelse af Grindstedværket</t>
+  </si>
+  <si>
+    <t>Edwin Rahrsvej 34</t>
+  </si>
+  <si>
+    <t>56.162833, 10.131361</t>
+  </si>
+  <si>
+    <t>3 rækkehuse</t>
+  </si>
+  <si>
+    <t>Skovbakkevej 7 C,D og E</t>
+  </si>
+  <si>
+    <t>Boliggrupper</t>
+  </si>
+  <si>
+    <t>56.154972, 10.107953</t>
+  </si>
+  <si>
+    <t>5 rækkehuse</t>
+  </si>
+  <si>
+    <t>Mariedalsvej 10 - 18</t>
+  </si>
+  <si>
+    <t>Hansen og Hjelm</t>
+  </si>
+  <si>
+    <t>56.157553, 10.098949</t>
+  </si>
+  <si>
+    <t>Tyttebærvej 12 - 18</t>
+  </si>
+  <si>
+    <t>56.154846, 10.119433</t>
+  </si>
+  <si>
+    <t>56 etagebiliger (Blok A og B)</t>
+  </si>
+  <si>
+    <t>Hoffmannsvej 2 - 16</t>
+  </si>
+  <si>
+    <t>Rømerhaven A/S</t>
+  </si>
+  <si>
+    <t>56.155194, 10.104276</t>
+  </si>
+  <si>
+    <t>65 etageboliger (Blok C)</t>
+  </si>
+  <si>
+    <t>Hoffmannsvej 18 - 30</t>
+  </si>
+  <si>
+    <t>56.156225, 10.101945</t>
+  </si>
+  <si>
+    <t>2 ens enfamiliehuse</t>
+  </si>
+  <si>
+    <t>Hoffmannsvej 3 - 5</t>
+  </si>
+  <si>
+    <t>56.155689, 10.101559</t>
+  </si>
+  <si>
+    <t>5 + 5 rækkehuse</t>
+  </si>
+  <si>
+    <t>Ligustervej 1 -9 og 2 - 10</t>
+  </si>
+  <si>
+    <t>56.155757, 10.123577</t>
+  </si>
+  <si>
+    <t>Vandværksvej 2 - 10</t>
+  </si>
+  <si>
+    <t>Svend Andresen</t>
+  </si>
+  <si>
+    <t>56.151876, 10.109425</t>
+  </si>
+  <si>
+    <t>Tingstedet 13 klyngehuse</t>
+  </si>
+  <si>
+    <t>Tingstedet 58 - 96</t>
+  </si>
+  <si>
+    <t>Leo Bøker</t>
+  </si>
+  <si>
+    <t>56.151101, 10.085095</t>
+  </si>
+  <si>
+    <t>Tingstedet 3 klyngehuse</t>
+  </si>
+  <si>
+    <t>Tingstedet 64 - 72 og 80</t>
+  </si>
+  <si>
+    <t>Svend Andresen?</t>
+  </si>
+  <si>
+    <t>56.151621, 10.086034</t>
+  </si>
+  <si>
+    <t>5 A-huse</t>
+  </si>
+  <si>
+    <t>Ørvadsvej 5 - 7</t>
+  </si>
+  <si>
+    <t>Gunnar Frank</t>
+  </si>
+  <si>
+    <t>56.149369, 10.087944</t>
+  </si>
+  <si>
+    <t>18 kollegieværelser</t>
+  </si>
+  <si>
+    <t>Skovbakkevej 21</t>
+  </si>
+  <si>
+    <t>56.156341, 10.109404</t>
+  </si>
+  <si>
+    <t>18 gårdhavehuse på Kroghs jorder</t>
+  </si>
+  <si>
+    <t>Egebjergvej 2 - 36</t>
+  </si>
+  <si>
+    <t>56.160430, 10.117075</t>
+  </si>
+  <si>
+    <t>10 gårdhavehuse på Kroghs jorder</t>
+  </si>
+  <si>
+    <t>Egebjergvej 137 - 155</t>
+  </si>
+  <si>
+    <t>56.158506, 10.112904</t>
+  </si>
+  <si>
+    <t>22 gårdhavehuse på Kroghs jorder</t>
+  </si>
+  <si>
+    <t>Egebjergvej 1 - 41A</t>
+  </si>
+  <si>
+    <t>56.160016, 10.116300</t>
+  </si>
+  <si>
+    <t>Plan og retningslinier for bebyggelse</t>
+  </si>
+  <si>
+    <t>Lykkenshøj 6 - 30 og 32 - 68</t>
+  </si>
+  <si>
+    <t>Eget regi</t>
+  </si>
+  <si>
+    <t>56.158064, 10.106942</t>
+  </si>
+  <si>
+    <t>Lykkenshøj 50 og 56 - 62</t>
+  </si>
+  <si>
+    <t>La Kamilius</t>
+  </si>
+  <si>
+    <t>56.159027, 10.108862</t>
+  </si>
+  <si>
+    <t>7 + 6 gårdhavehuse, 5 + 10 terrassehuse</t>
+  </si>
+  <si>
+    <t>Hejrebakken 13 - 57, 2 - 32</t>
+  </si>
+  <si>
+    <t>Boligf.Bikuben</t>
+  </si>
+  <si>
+    <t>56.157348, 10.123950</t>
+  </si>
+  <si>
+    <t>126 etageboliger, Hans Broges Bakker</t>
+  </si>
+  <si>
+    <t>J.P. Larsensvej 112 - 128</t>
+  </si>
+  <si>
+    <t>Kurt Thorsen</t>
+  </si>
+  <si>
+    <t>56.155126, 10.105206</t>
+  </si>
+  <si>
+    <t>9 rækkehusboliger i tre etager</t>
+  </si>
+  <si>
+    <t>Skovbakkevej 9 C - K</t>
+  </si>
+  <si>
+    <t>56.155929, 10.107341</t>
+  </si>
+  <si>
+    <t>4 dobbelthuse, 16 boliger</t>
+  </si>
+  <si>
+    <t>J.P. Larsensvej 23 - 29</t>
+  </si>
+  <si>
+    <t>56.154574, 10.106577</t>
+  </si>
+  <si>
+    <t>Hus for E. Kornerup</t>
+  </si>
+  <si>
+    <t>Hans Brogesvej 33</t>
+  </si>
+  <si>
+    <t>Enfamilieboliger</t>
+  </si>
+  <si>
+    <t>Ernst Kornerup</t>
+  </si>
+  <si>
+    <t>56.156089, 10.117217</t>
+  </si>
+  <si>
+    <t>Hus for tømrermester Møller</t>
+  </si>
+  <si>
+    <t>Silkeborgvej 683</t>
+  </si>
+  <si>
+    <t>Frode Møller</t>
+  </si>
+  <si>
+    <t>56.153034, 10.093043</t>
+  </si>
+  <si>
+    <t>Hus for murermester Hjelm</t>
+  </si>
+  <si>
+    <t>Silkeborgvej 687</t>
+  </si>
+  <si>
+    <t>Harald Hjelm</t>
+  </si>
+  <si>
+    <t>56.153007, 10.092310</t>
+  </si>
+  <si>
+    <t>Hus for speditør Erichsen</t>
+  </si>
+  <si>
+    <t>Søparkvej 7</t>
+  </si>
+  <si>
+    <t>Knud Erichsen</t>
+  </si>
+  <si>
+    <t>56.151766, 10.107274</t>
+  </si>
+  <si>
+    <t>Hus for civ.ing. Sv. Jensen</t>
+  </si>
+  <si>
+    <t>Tyttebærvej 5</t>
+  </si>
+  <si>
+    <t>Svend Jensen</t>
+  </si>
+  <si>
+    <t>56.155215, 10.119814</t>
+  </si>
+  <si>
+    <t>Eget hus, Knud Friis</t>
+  </si>
+  <si>
+    <t>Højen 13</t>
+  </si>
+  <si>
+    <t>Knud Friis</t>
+  </si>
+  <si>
+    <t>56.157269, 10.111467</t>
+  </si>
+  <si>
+    <t>Hus for overlæge Leth-Petersen</t>
+  </si>
+  <si>
+    <t>Højen 6</t>
+  </si>
+  <si>
+    <t>A. Leth-Petersen</t>
+  </si>
+  <si>
+    <t>56.157762, 10.111153</t>
+  </si>
+  <si>
+    <t>Hus for mælkehandler Christiansen</t>
+  </si>
+  <si>
+    <t>J.P.Larsensvej 38A</t>
+  </si>
+  <si>
+    <t>Johs. Christiansen</t>
+  </si>
+  <si>
+    <t>56.155239, 10.112250</t>
+  </si>
+  <si>
+    <t>Hus for driftsbestyrer Larsen</t>
+  </si>
+  <si>
+    <t>Stenbækvej 15</t>
+  </si>
+  <si>
+    <t>Otto Larsen</t>
+  </si>
+  <si>
+    <t>56.155657, 10.117727</t>
+  </si>
+  <si>
+    <t>Hus for manufakturhandler Poulsen</t>
+  </si>
+  <si>
+    <t>Søvej 3A</t>
+  </si>
+  <si>
+    <t>Aage Poulsen</t>
+  </si>
+  <si>
+    <t>56.151997, 10.104694</t>
+  </si>
+  <si>
+    <t>Hus for direktør Dalgaard Sørensen</t>
+  </si>
+  <si>
+    <t>Engdalsvej 18</t>
+  </si>
+  <si>
+    <t>Henry Dalgaard Sørensen</t>
+  </si>
+  <si>
+    <t>56.151834, 10.108527</t>
+  </si>
+  <si>
+    <t>Hus for civ.ing. Bigaard Sørensen</t>
+  </si>
+  <si>
+    <t>Lyngbakkevej 8</t>
+  </si>
+  <si>
+    <t>Bent Bigaard Sørensen</t>
+  </si>
+  <si>
+    <t>56.157341, 10.112349</t>
+  </si>
+  <si>
+    <t>Hus for tandlæge Sørensen</t>
+  </si>
+  <si>
+    <t>Hougårdsvej 31</t>
+  </si>
+  <si>
+    <t>Holger Sørensen</t>
+  </si>
+  <si>
+    <t>56.150674, 10.094461</t>
+  </si>
+  <si>
+    <t>Hus for lærer Dohm</t>
+  </si>
+  <si>
+    <t>Quistgårdsvej 1</t>
+  </si>
+  <si>
+    <t>Bent Dohm</t>
+  </si>
+  <si>
+    <t>56.151833, 10.105354</t>
+  </si>
+  <si>
+    <t>Hus for install.mester Ejstrup</t>
+  </si>
+  <si>
+    <t>Hørstykkevej 3</t>
+  </si>
+  <si>
+    <t>Gunnar Ejstrup</t>
+  </si>
+  <si>
+    <t>56.155250, 10.120688</t>
+  </si>
+  <si>
+    <t>Hus for direktør Johansen</t>
+  </si>
+  <si>
+    <t>Edwin Rahsvej 61</t>
+  </si>
+  <si>
+    <t>Willy "Derby" Johansen</t>
+  </si>
+  <si>
+    <t>56.163032, 10.118521</t>
+  </si>
+  <si>
+    <t>Hus for export manager Godfrey</t>
+  </si>
+  <si>
+    <t>Lyngbakkevej 10</t>
+  </si>
+  <si>
+    <t>A.B. Godfrey</t>
+  </si>
+  <si>
+    <t>56.158149, 10.112746</t>
+  </si>
+  <si>
+    <t>Hus for gartner Harmsen</t>
+  </si>
+  <si>
+    <t>Skibbyvej 11</t>
+  </si>
+  <si>
+    <t>Helge Harmsen</t>
+  </si>
+  <si>
+    <t>56.150390, 10.069753</t>
+  </si>
+  <si>
+    <t>Hus for Revisor Lund</t>
+  </si>
+  <si>
+    <t>Lykkensdalsvej 6C</t>
+  </si>
+  <si>
+    <t>C.Lund</t>
+  </si>
+  <si>
+    <t>56.157142, 10.102784</t>
+  </si>
+  <si>
+    <t>Hus for speciallæge Andersson</t>
+  </si>
+  <si>
+    <t>Hans Brogesvej 3C</t>
+  </si>
+  <si>
+    <t>Poul G. Andersson</t>
+  </si>
+  <si>
+    <t>56.1560404,10.1111153</t>
+  </si>
+  <si>
+    <t>Tilbygning og indvendig indretning</t>
+  </si>
+  <si>
+    <t>Engdalsvej 74 C</t>
+  </si>
+  <si>
+    <t>Mogens Vigh Larsen</t>
+  </si>
+  <si>
+    <t>56.150104, 10.115291</t>
+  </si>
+  <si>
+    <t>Enfamiliehus</t>
+  </si>
+  <si>
+    <t>Lykkenshøj 24</t>
+  </si>
+  <si>
+    <t>56.157350, 10.106086</t>
+  </si>
+  <si>
+    <t>Hus for Jerløv og Troelsen</t>
+  </si>
+  <si>
+    <t>Lyngbakkevej 12</t>
+  </si>
+  <si>
+    <t>Jerløv og Troelsen</t>
+  </si>
+  <si>
+    <t>56.158226, 10.113342</t>
   </si>
 </sst>
 </file>
@@ -183,7 +738,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,12 +755,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -314,7 +863,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -946,405 +1495,989 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1962</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1963</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1966</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1971</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1987</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1990</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1955</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1956</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1960</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1963</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1966</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1967</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1966</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1965</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1967</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="12">
+        <v>1967</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1968</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10"/>
+      <c r="A34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1968</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1971</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1972</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1974</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1973</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1978</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1977</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1991</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="10"/>
+      <c r="A42" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="12">
+        <v>2005</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="10"/>
+      <c r="A43" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="12">
+        <v>2006</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="12">
+        <v>1952</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1953</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1955</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1956</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="12">
+        <v>1958</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="12">
+        <v>1958</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1960</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1961</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="12">
+        <v>1960</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="A53" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="12">
+        <v>1961</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="A54" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1961</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="A55" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="12">
+        <v>1961</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="A56" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="12">
+        <v>1962</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="A57" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="12">
+        <v>1962</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="A58" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="12">
+        <v>1963</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="A59" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="12">
+        <v>1963</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="A60" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="12">
+        <v>1963</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="A61" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="12">
+        <v>1965</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="A62" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="12">
+        <v>1968</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="A63" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="12">
+        <v>1969</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="A64" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="12">
+        <v>1974</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="10"/>
+      <c r="A65" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="12">
+        <v>1985</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="A66" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="12">
+        <v>1999</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="10"/>

--- a/excel/FM.xlsx
+++ b/excel/FM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="252">
   <si>
     <t>Projekt</t>
   </si>
@@ -43,27 +43,30 @@
     <t>Offentlige bygninger</t>
   </si>
   <si>
+    <t>Sammen med KBP+E43</t>
+  </si>
+  <si>
+    <t>56.153179, 10.119894</t>
+  </si>
+  <si>
+    <t>Brabrand Sygekasse</t>
+  </si>
+  <si>
+    <t>Engdalsvej 6</t>
+  </si>
+  <si>
+    <t>56.152181, 10.103970</t>
+  </si>
+  <si>
+    <t>Gjellerupskolen (/Sødalskolen)</t>
+  </si>
+  <si>
+    <t>Louisevej 29</t>
+  </si>
+  <si>
     <t>Sammen med KBP</t>
   </si>
   <si>
-    <t>56.153179, 10.119894</t>
-  </si>
-  <si>
-    <t>Brabrand Sygekasse</t>
-  </si>
-  <si>
-    <t>Engdalsvej 6</t>
-  </si>
-  <si>
-    <t>56.152181, 10.103970</t>
-  </si>
-  <si>
-    <t>Gjellerupskolen (/Sødalskolen)</t>
-  </si>
-  <si>
-    <t>Louisevej 29</t>
-  </si>
-  <si>
     <t>56.149681, 10.138428</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Holmstrupgårdsvej 39</t>
   </si>
   <si>
+    <t>(Dir.f. B&amp;Uforsorg)</t>
+  </si>
+  <si>
     <t>56.174504, 10.117917</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>Spobjergvej 6</t>
   </si>
   <si>
+    <t>Sammen med KBP o</t>
+  </si>
+  <si>
     <t>56.168670, 10.116093</t>
   </si>
   <si>
@@ -154,7 +163,7 @@
     <t>Engdalsvej 2</t>
   </si>
   <si>
-    <t>(1974 nedrevet)</t>
+    <t>Kontor fra 1974 nedrevet 2009</t>
   </si>
   <si>
     <t>56.151911, 10.101433</t>
@@ -211,6 +220,9 @@
     <t>Holmstrupgårdsvej 1</t>
   </si>
   <si>
+    <t>Virksomheden</t>
+  </si>
+  <si>
     <t>56.164111, 10.119985</t>
   </si>
   <si>
@@ -220,7 +232,7 @@
     <t>Hovedgaden 54</t>
   </si>
   <si>
-    <t>Gunnar Frank (?)</t>
+    <t>B.hus v/ boghdl. K.Marnow</t>
   </si>
   <si>
     <t>56.153726, 10.103720</t>
@@ -232,6 +244,9 @@
     <t>Hovedgaden 56 - 58</t>
   </si>
   <si>
+    <t>Det alm. Danske ejd.selskab A/S</t>
+  </si>
+  <si>
     <t>56.153523, 10.103490</t>
   </si>
   <si>
@@ -241,6 +256,9 @@
     <t>Edwin Rahrsvej 34</t>
   </si>
   <si>
+    <t>Grindsted Products A/S</t>
+  </si>
+  <si>
     <t>56.162833, 10.131361</t>
   </si>
   <si>
@@ -253,6 +271,9 @@
     <t>Boliggrupper</t>
   </si>
   <si>
+    <t>H.Brund, T.Pedersen og J.C.Astrup</t>
+  </si>
+  <si>
     <t>56.154972, 10.107953</t>
   </si>
   <si>
@@ -262,7 +283,7 @@
     <t>Mariedalsvej 10 - 18</t>
   </si>
   <si>
-    <t>Hansen og Hjelm</t>
+    <t>Murermestrene Hansen og H.Hjelm</t>
   </si>
   <si>
     <t>56.157553, 10.098949</t>
@@ -316,9 +337,6 @@
     <t>Vandværksvej 2 - 10</t>
   </si>
   <si>
-    <t>Svend Andresen</t>
-  </si>
-  <si>
     <t>56.151876, 10.109425</t>
   </si>
   <si>
@@ -328,7 +346,7 @@
     <t>Tingstedet 58 - 96</t>
   </si>
   <si>
-    <t>Leo Bøker</t>
+    <t>Svend Andresen (Højbjerg)</t>
   </si>
   <si>
     <t>56.151101, 10.085095</t>
@@ -340,7 +358,7 @@
     <t>Tingstedet 64 - 72 og 80</t>
   </si>
   <si>
-    <t>Svend Andresen?</t>
+    <t>Leo Bødker Nielsen m.fl.</t>
   </si>
   <si>
     <t>56.151621, 10.086034</t>
@@ -352,18 +370,18 @@
     <t>Ørvadsvej 5 - 7</t>
   </si>
   <si>
+    <t>56.149369, 10.087944</t>
+  </si>
+  <si>
+    <t>18 kollegieværelser</t>
+  </si>
+  <si>
+    <t>Skovbakkevej 21</t>
+  </si>
+  <si>
     <t>Gunnar Frank</t>
   </si>
   <si>
-    <t>56.149369, 10.087944</t>
-  </si>
-  <si>
-    <t>18 kollegieværelser</t>
-  </si>
-  <si>
-    <t>Skovbakkevej 21</t>
-  </si>
-  <si>
     <t>56.156341, 10.109404</t>
   </si>
   <si>
@@ -373,6 +391,9 @@
     <t>Egebjergvej 2 - 36</t>
   </si>
   <si>
+    <t>Murermester Erling Nielsen</t>
+  </si>
+  <si>
     <t>56.160430, 10.117075</t>
   </si>
   <si>
@@ -400,51 +421,51 @@
     <t>Lykkenshøj 6 - 30 og 32 - 68</t>
   </si>
   <si>
+    <t>56.158064, 10.106942</t>
+  </si>
+  <si>
+    <t>Lykkenshøj 50 og 56 - 62</t>
+  </si>
+  <si>
     <t>Eget regi</t>
   </si>
   <si>
-    <t>56.158064, 10.106942</t>
-  </si>
-  <si>
-    <t>Lykkenshøj 50 og 56 - 62</t>
+    <t>56.159027, 10.108862</t>
+  </si>
+  <si>
+    <t>7 + 6 gårdhavehuse, 5 + 10 terrassehuse</t>
+  </si>
+  <si>
+    <t>Hejrebakken 13 - 57, 2 - 32</t>
   </si>
   <si>
     <t>La Kamilius</t>
   </si>
   <si>
-    <t>56.159027, 10.108862</t>
-  </si>
-  <si>
-    <t>7 + 6 gårdhavehuse, 5 + 10 terrassehuse</t>
-  </si>
-  <si>
-    <t>Hejrebakken 13 - 57, 2 - 32</t>
+    <t>56.157348, 10.123950</t>
+  </si>
+  <si>
+    <t>126 etageboliger, Hans Broges Bakker</t>
+  </si>
+  <si>
+    <t>J.P. Larsensvej 112 - 128</t>
   </si>
   <si>
     <t>Boligf.Bikuben</t>
   </si>
   <si>
-    <t>56.157348, 10.123950</t>
-  </si>
-  <si>
-    <t>126 etageboliger, Hans Broges Bakker</t>
-  </si>
-  <si>
-    <t>J.P. Larsensvej 112 - 128</t>
+    <t>56.155126, 10.105206</t>
+  </si>
+  <si>
+    <t>9 rækkehusboliger i tre etager</t>
+  </si>
+  <si>
+    <t>Skovbakkevej 9 C - K</t>
   </si>
   <si>
     <t>Kurt Thorsen</t>
   </si>
   <si>
-    <t>56.155126, 10.105206</t>
-  </si>
-  <si>
-    <t>9 rækkehusboliger i tre etager</t>
-  </si>
-  <si>
-    <t>Skovbakkevej 9 C - K</t>
-  </si>
-  <si>
     <t>56.155929, 10.107341</t>
   </si>
   <si>
@@ -454,6 +475,9 @@
     <t>J.P. Larsensvej 23 - 29</t>
   </si>
   <si>
+    <t>Ole Carstensen (?)</t>
+  </si>
+  <si>
     <t>56.154574, 10.106577</t>
   </si>
   <si>
@@ -664,6 +688,18 @@
     <t>56.158149, 10.112746</t>
   </si>
   <si>
+    <t>Hus for Dalsø Flaskegas Compagni</t>
+  </si>
+  <si>
+    <t>Hoffmannsvej 7</t>
+  </si>
+  <si>
+    <t>DFC / Bjørnkjær Savværk</t>
+  </si>
+  <si>
+    <t>56.156023, 10.101376</t>
+  </si>
+  <si>
     <t>Hus for gartner Harmsen</t>
   </si>
   <si>
@@ -716,6 +752,9 @@
   </si>
   <si>
     <t>Lykkenshøj 24</t>
+  </si>
+  <si>
+    <t>H.J.Christiansen, senere E. Dybvad</t>
   </si>
   <si>
     <t>56.157350, 10.106086</t>
@@ -1263,18 +1302,18 @@
         <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8">
         <v>1968</v>
@@ -1283,18 +1322,18 @@
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8">
         <v>1968</v>
@@ -1303,18 +1342,18 @@
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8">
         <v>1969</v>
@@ -1322,17 +1361,19 @@
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8">
         <v>1970</v>
@@ -1341,18 +1382,18 @@
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8">
         <v>1971</v>
@@ -1360,17 +1401,19 @@
       <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="8">
         <v>1973</v>
@@ -1380,15 +1423,15 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8">
         <v>1973</v>
@@ -1397,18 +1440,18 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8">
         <v>1978</v>
@@ -1418,15 +1461,15 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="8">
         <v>1984</v>
@@ -1436,15 +1479,15 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <v>1982</v>
@@ -1453,18 +1496,18 @@
         <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15" s="8">
         <v>1992</v>
@@ -1474,15 +1517,15 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="8">
         <v>1992</v>
@@ -1492,1000 +1535,1028 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C17" s="11">
         <v>1962</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="11">
         <v>1963</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" s="11">
         <v>1966</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C20" s="11">
         <v>1971</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C21" s="12">
         <v>1987</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="F21" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C22" s="12">
         <v>1990</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C23" s="12">
         <v>1955</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="F23" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C24" s="12">
         <v>1956</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C25" s="12">
         <v>1960</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C26" s="12">
         <v>1963</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C27" s="12">
         <v>1966</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C28" s="12">
         <v>1967</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C29" s="12">
         <v>1966</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C30" s="12">
         <v>1965</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C31" s="12">
         <v>1967</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C32" s="12">
         <v>1967</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C33" s="12">
         <v>1968</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C34" s="12">
         <v>1968</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="F34" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C35" s="12">
         <v>1971</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C36" s="12">
         <v>1972</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C37" s="12">
         <v>1974</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C38" s="12">
         <v>1973</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C39" s="12">
         <v>1978</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C40" s="12">
         <v>1977</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C41" s="12">
         <v>1991</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C42" s="12">
         <v>2005</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="F42" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C43" s="12">
         <v>2006</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="F43" s="10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C44" s="12">
         <v>1952</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="10" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C45" s="12">
         <v>1953</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="10" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C46" s="12">
         <v>1955</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="10" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C47" s="12">
         <v>1956</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="10" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C48" s="12">
         <v>1958</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="10" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C49" s="12">
         <v>1958</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="10" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C50" s="12">
         <v>1960</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="10" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C51" s="12">
         <v>1961</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="10" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C52" s="12">
         <v>1960</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C53" s="12">
         <v>1961</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C54" s="12">
         <v>1961</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="10" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C55" s="12">
         <v>1961</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C56" s="12">
         <v>1962</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="10" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C57" s="12">
         <v>1962</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="10" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C58" s="12">
         <v>1963</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="10" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C59" s="12">
         <v>1963</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="10" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C60" s="12">
         <v>1963</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="10" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C61" s="12">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="10" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C62" s="12">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="10" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C63" s="12">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="10" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C64" s="12">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C65" s="12">
-        <v>1985</v>
+        <v>1974</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>242</v>
+      </c>
       <c r="F65" s="10" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="10" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C66" s="12">
+        <v>1985</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="12">
         <v>1999</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="D67" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="10"/>

--- a/excel/FM.xlsx
+++ b/excel/FM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
   <si>
     <t>Projekt</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Spobjergvej 6</t>
-  </si>
-  <si>
-    <t>Sammen med KBP o</t>
   </si>
   <si>
     <t>56.168670, 10.116093</t>
@@ -1476,18 +1473,18 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="C12" s="8">
         <v>1978</v>
@@ -1497,15 +1494,15 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="C13" s="8">
         <v>1982</v>
@@ -1514,18 +1511,18 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="C14" s="8">
         <v>1984</v>
@@ -1535,15 +1532,15 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8">
         <v>1982</v>
@@ -1553,15 +1550,15 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="C16" s="8">
         <v>1992</v>
@@ -1571,15 +1568,15 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="C17" s="11">
         <v>1992</v>
@@ -1589,1067 +1586,1067 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="C18" s="11">
         <v>1962</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="C19" s="11">
         <v>1963</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="C20" s="11">
         <v>1966</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="C21" s="12">
         <v>1971</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="C22" s="12">
         <v>1987</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="C23" s="12">
         <v>1990</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="C24" s="12">
         <v>1955</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="C25" s="12">
         <v>1956</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="C26" s="12">
         <v>1960</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="C27" s="12">
         <v>1963</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="C28" s="12">
         <v>1966</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="C29" s="12">
         <v>1967</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="C30" s="12">
         <v>1967</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="C31" s="12">
         <v>1966</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="12">
         <v>1965</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="C33" s="12">
         <v>1967</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="C34" s="12">
         <v>1967</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="C35" s="12">
         <v>1968</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="C36" s="12">
         <v>1968</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="C37" s="12">
         <v>1971</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="C38" s="12">
         <v>1972</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="C39" s="12">
         <v>1974</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="C40" s="12">
         <v>1973</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="12">
         <v>1978</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="C42" s="12">
         <v>1977</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="C43" s="12">
         <v>1991</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="C44" s="12">
         <v>2005</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="C45" s="12">
         <v>2006</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="C46" s="12">
         <v>1952</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="C47" s="12">
         <v>1953</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E47" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="C48" s="12">
         <v>1955</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E48" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="C49" s="12">
         <v>1956</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="C50" s="12">
         <v>1958</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E50" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="C51" s="12">
         <v>1958</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="C52" s="12">
         <v>1960</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E52" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="C53" s="12">
         <v>1961</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E53" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="C54" s="12">
         <v>1960</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E54" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="C55" s="12">
         <v>1961</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E55" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="C56" s="12">
         <v>1961</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E56" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>209</v>
       </c>
       <c r="C57" s="12">
         <v>1961</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E57" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="C58" s="12">
         <v>1962</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E58" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="C59" s="12">
         <v>1962</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E59" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="C60" s="12">
         <v>1963</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E60" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="C61" s="12">
         <v>1963</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E61" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="C62" s="12">
         <v>1963</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E62" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="C63" s="12">
         <v>1964</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E63" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="C64" s="12">
         <v>1965</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E64" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="C65" s="12">
         <v>1968</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E65" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>243</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="C66" s="12">
         <v>1969</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E66" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>247</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="C67" s="12">
         <v>1974</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E67" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>251</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="C68" s="12">
         <v>1985</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E68" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>255</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="C69" s="12">
         <v>1989</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E69" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="C70" s="12">
         <v>1999</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E70" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>263</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">

--- a/excel/FM.xlsx
+++ b/excel/FM.xlsx
@@ -157,7 +157,7 @@
     <t>Kontor fra 1974 nedrevet 2009</t>
   </si>
   <si>
-    <t>56.151645, 10.102723</t>
+    <t>56.152143, 10.103562</t>
   </si>
   <si>
     <t>Skjoldhøj Kirke</t>

--- a/excel/FM.xlsx
+++ b/excel/FM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="263">
   <si>
     <t>Projekt</t>
   </si>
@@ -136,6 +136,9 @@
     <t>Spobjergvej 6</t>
   </si>
   <si>
+    <t>Sammen med KBP o</t>
+  </si>
+  <si>
     <t>56.168670, 10.116093</t>
   </si>
   <si>
@@ -169,12 +172,6 @@
     <t>56.173872, 10.121978</t>
   </si>
   <si>
-    <t>Brabrand Kirke</t>
-  </si>
-  <si>
-    <t>56.151911, 10.101433</t>
-  </si>
-  <si>
     <t>46 ældreboliger</t>
   </si>
   <si>
@@ -803,6 +800,9 @@
   </si>
   <si>
     <t>56.158226, 10.113342</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -903,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -940,6 +940,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1255,12 +1258,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="32.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="21.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1473,18 +1476,18 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="8">
         <v>1978</v>
@@ -1494,15 +1497,15 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8">
         <v>1982</v>
@@ -1511,18 +1514,18 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="8">
         <v>1984</v>
@@ -1532,33 +1535,33 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C15" s="8">
-        <v>1982</v>
+        <v>1992</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="8">
         <v>1992</v>
@@ -1568,1084 +1571,1084 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" s="11">
-        <v>1992</v>
+        <v>1962</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1963</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="11">
-        <v>1962</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C19" s="11">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C20" s="11">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" s="12">
-        <v>1971</v>
+        <v>1987</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C22" s="12">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C23" s="12">
-        <v>1990</v>
+        <v>1955</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1956</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="12">
-        <v>1955</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C25" s="12">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C26" s="12">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1966</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="12">
-        <v>1963</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="F27" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C28" s="12">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C29" s="12">
         <v>1967</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C30" s="12">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="10" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" s="12">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="10" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C32" s="12">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C33" s="12">
         <v>1967</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C34" s="12">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C35" s="12">
         <v>1968</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C36" s="12">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C37" s="12">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C38" s="12">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C39" s="12">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="10" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C40" s="12">
-        <v>1973</v>
+        <v>1978</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="10" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C41" s="12">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C42" s="12">
-        <v>1977</v>
+        <v>1991</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C43" s="12">
-        <v>1991</v>
+        <v>2005</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C44" s="12">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C45" s="12">
-        <v>2006</v>
+        <v>1952</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1953</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="12">
-        <v>1952</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="E46" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C47" s="12">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C48" s="12">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C49" s="12">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C50" s="12">
         <v>1958</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C51" s="12">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C52" s="12">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C53" s="12">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C54" s="12">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C55" s="12">
         <v>1961</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C56" s="12">
         <v>1961</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C57" s="12">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C58" s="12">
         <v>1962</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C59" s="12">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C60" s="12">
         <v>1963</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C61" s="12">
         <v>1963</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C62" s="12">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C63" s="12">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C64" s="12">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C65" s="12">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C66" s="12">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C67" s="12">
-        <v>1974</v>
+        <v>1985</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C68" s="12">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C69" s="12">
-        <v>1989</v>
+        <v>1999</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C70" s="12">
-        <v>1999</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F70" s="10" t="s">
+      <c r="A70" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>262</v>
       </c>
     </row>

--- a/excel/FM.xlsx
+++ b/excel/FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikl\Documents\GitHub\Brabrand-1980\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEFA734-5585-40AD-B803-D90C6312CF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085C396-5AE8-4834-A688-6FD9B01AE885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,12 +889,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -907,15 +929,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -923,46 +936,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,4200 +1287,4200 @@
   </sheetPr>
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="76" workbookViewId="0">
+      <selection activeCell="F70" sqref="A2:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>1956</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>1957</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>1959</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>1968</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>1968</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>1969</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>1970</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>1971</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>1973</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>1973</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>1978</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>1982</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>1984</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>1992</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>1992</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="13">
         <v>1962</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="13">
         <v>1963</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="13">
         <v>1966</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="13">
         <v>1971</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="14">
         <v>1987</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="14">
         <v>1990</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="14">
         <v>1955</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="14">
         <v>1956</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="14">
         <v>1960</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="14">
         <v>1963</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="14">
         <v>1966</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="14">
         <v>1967</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="14">
         <v>1967</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="14">
         <v>1966</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="14">
         <v>1965</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="14">
         <v>1967</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="14">
         <v>1967</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="14">
         <v>1968</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="14">
         <v>1968</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="14">
         <v>1971</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="14">
         <v>1972</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="14">
         <v>1974</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="14">
         <v>1973</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="14">
         <v>1978</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="14">
         <v>1977</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="14">
         <v>1991</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="14">
         <v>2005</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="14">
         <v>2006</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="14">
         <v>1952</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="14">
         <v>1953</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="14">
         <v>1955</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="14">
         <v>1956</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="14">
         <v>1958</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="14">
         <v>1958</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="14">
         <v>1960</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="12" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="14">
         <v>1961</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="14">
         <v>1960</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="14">
         <v>1961</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="14">
         <v>1961</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="14">
         <v>1961</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="14">
         <v>1962</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="12" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="14">
         <v>1962</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="14">
         <v>1963</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="14">
         <v>1963</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="12" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="14">
         <v>1963</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="14">
         <v>1964</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="14">
         <v>1965</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="14">
         <v>1968</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="12" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="14">
         <v>1969</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="14">
         <v>1974</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="14">
         <v>1985</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="12" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="14">
         <v>1989</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="12" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="14">
         <v>1999</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="12" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="15">
         <v>1962</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="16" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C71" s="11"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="11"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C73" s="11"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="11"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="11"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C76" s="11"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C77" s="11"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="11"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C79" s="11"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="11"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C81" s="11"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C82" s="11"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="11"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C84" s="11"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C85" s="11"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C86" s="11"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C87" s="11"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C88" s="11"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C89" s="11"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C90" s="11"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C91" s="11"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C92" s="11"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C93" s="11"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C94" s="11"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C95" s="11"/>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C96" s="11"/>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C97" s="11"/>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C98" s="11"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C99" s="11"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C100" s="11"/>
+      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C101" s="11"/>
+      <c r="C101" s="1"/>
     </row>
     <row r="102" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C102" s="11"/>
+      <c r="C102" s="1"/>
     </row>
     <row r="103" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C103" s="11"/>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C104" s="11"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="105" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C105" s="11"/>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C106" s="11"/>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C107" s="11"/>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C108" s="11"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C109" s="11"/>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C110" s="11"/>
+      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C111" s="11"/>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C112" s="11"/>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C113" s="11"/>
+      <c r="C113" s="1"/>
     </row>
     <row r="114" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C114" s="11"/>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C115" s="11"/>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C116" s="11"/>
+      <c r="C116" s="1"/>
     </row>
     <row r="117" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C117" s="11"/>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C118" s="11"/>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C119" s="11"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C120" s="11"/>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C121" s="11"/>
+      <c r="C121" s="1"/>
     </row>
     <row r="122" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C122" s="11"/>
+      <c r="C122" s="1"/>
     </row>
     <row r="123" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C123" s="11"/>
+      <c r="C123" s="1"/>
     </row>
     <row r="124" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C124" s="11"/>
+      <c r="C124" s="1"/>
     </row>
     <row r="125" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C125" s="11"/>
+      <c r="C125" s="1"/>
     </row>
     <row r="126" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C126" s="11"/>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C127" s="11"/>
+      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C128" s="11"/>
+      <c r="C128" s="1"/>
     </row>
     <row r="129" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C129" s="11"/>
+      <c r="C129" s="1"/>
     </row>
     <row r="130" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C130" s="11"/>
+      <c r="C130" s="1"/>
     </row>
     <row r="131" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C131" s="11"/>
+      <c r="C131" s="1"/>
     </row>
     <row r="132" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C132" s="11"/>
+      <c r="C132" s="1"/>
     </row>
     <row r="133" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C133" s="11"/>
+      <c r="C133" s="1"/>
     </row>
     <row r="134" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C134" s="11"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C135" s="11"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C136" s="11"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C137" s="11"/>
+      <c r="C137" s="1"/>
     </row>
     <row r="138" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C138" s="11"/>
+      <c r="C138" s="1"/>
     </row>
     <row r="139" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C139" s="11"/>
+      <c r="C139" s="1"/>
     </row>
     <row r="140" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C140" s="11"/>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C141" s="11"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C142" s="11"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C143" s="11"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C144" s="11"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C145" s="11"/>
+      <c r="C145" s="1"/>
     </row>
     <row r="146" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C146" s="11"/>
+      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C147" s="11"/>
+      <c r="C147" s="1"/>
     </row>
     <row r="148" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C148" s="11"/>
+      <c r="C148" s="1"/>
     </row>
     <row r="149" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C149" s="11"/>
+      <c r="C149" s="1"/>
     </row>
     <row r="150" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C150" s="11"/>
+      <c r="C150" s="1"/>
     </row>
     <row r="151" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C151" s="11"/>
+      <c r="C151" s="1"/>
     </row>
     <row r="152" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C152" s="11"/>
+      <c r="C152" s="1"/>
     </row>
     <row r="153" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C153" s="11"/>
+      <c r="C153" s="1"/>
     </row>
     <row r="154" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C154" s="11"/>
+      <c r="C154" s="1"/>
     </row>
     <row r="155" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C155" s="11"/>
+      <c r="C155" s="1"/>
     </row>
     <row r="156" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C156" s="11"/>
+      <c r="C156" s="1"/>
     </row>
     <row r="157" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C157" s="11"/>
+      <c r="C157" s="1"/>
     </row>
     <row r="158" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C158" s="11"/>
+      <c r="C158" s="1"/>
     </row>
     <row r="159" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C159" s="11"/>
+      <c r="C159" s="1"/>
     </row>
     <row r="160" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C160" s="11"/>
+      <c r="C160" s="1"/>
     </row>
     <row r="161" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C161" s="11"/>
+      <c r="C161" s="1"/>
     </row>
     <row r="162" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C162" s="11"/>
+      <c r="C162" s="1"/>
     </row>
     <row r="163" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C163" s="11"/>
+      <c r="C163" s="1"/>
     </row>
     <row r="164" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C164" s="11"/>
+      <c r="C164" s="1"/>
     </row>
     <row r="165" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C165" s="11"/>
+      <c r="C165" s="1"/>
     </row>
     <row r="166" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C166" s="11"/>
+      <c r="C166" s="1"/>
     </row>
     <row r="167" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C167" s="11"/>
+      <c r="C167" s="1"/>
     </row>
     <row r="168" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C168" s="11"/>
+      <c r="C168" s="1"/>
     </row>
     <row r="169" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C169" s="11"/>
+      <c r="C169" s="1"/>
     </row>
     <row r="170" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C170" s="11"/>
+      <c r="C170" s="1"/>
     </row>
     <row r="171" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C171" s="11"/>
+      <c r="C171" s="1"/>
     </row>
     <row r="172" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C172" s="11"/>
+      <c r="C172" s="1"/>
     </row>
     <row r="173" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C173" s="11"/>
+      <c r="C173" s="1"/>
     </row>
     <row r="174" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C174" s="11"/>
+      <c r="C174" s="1"/>
     </row>
     <row r="175" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C175" s="11"/>
+      <c r="C175" s="1"/>
     </row>
     <row r="176" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C176" s="11"/>
+      <c r="C176" s="1"/>
     </row>
     <row r="177" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C177" s="11"/>
+      <c r="C177" s="1"/>
     </row>
     <row r="178" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C178" s="11"/>
+      <c r="C178" s="1"/>
     </row>
     <row r="179" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C179" s="11"/>
+      <c r="C179" s="1"/>
     </row>
     <row r="180" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C180" s="11"/>
+      <c r="C180" s="1"/>
     </row>
     <row r="181" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C181" s="11"/>
+      <c r="C181" s="1"/>
     </row>
     <row r="182" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C182" s="11"/>
+      <c r="C182" s="1"/>
     </row>
     <row r="183" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C183" s="11"/>
+      <c r="C183" s="1"/>
     </row>
     <row r="184" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C184" s="11"/>
+      <c r="C184" s="1"/>
     </row>
     <row r="185" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C185" s="11"/>
+      <c r="C185" s="1"/>
     </row>
     <row r="186" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C186" s="11"/>
+      <c r="C186" s="1"/>
     </row>
     <row r="187" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C187" s="11"/>
+      <c r="C187" s="1"/>
     </row>
     <row r="188" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C188" s="11"/>
+      <c r="C188" s="1"/>
     </row>
     <row r="189" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C189" s="11"/>
+      <c r="C189" s="1"/>
     </row>
     <row r="190" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C190" s="11"/>
+      <c r="C190" s="1"/>
     </row>
     <row r="191" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C191" s="11"/>
+      <c r="C191" s="1"/>
     </row>
     <row r="192" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C192" s="11"/>
+      <c r="C192" s="1"/>
     </row>
     <row r="193" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C193" s="11"/>
+      <c r="C193" s="1"/>
     </row>
     <row r="194" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C194" s="11"/>
+      <c r="C194" s="1"/>
     </row>
     <row r="195" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C195" s="11"/>
+      <c r="C195" s="1"/>
     </row>
     <row r="196" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C196" s="11"/>
+      <c r="C196" s="1"/>
     </row>
     <row r="197" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C197" s="11"/>
+      <c r="C197" s="1"/>
     </row>
     <row r="198" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C198" s="11"/>
+      <c r="C198" s="1"/>
     </row>
     <row r="199" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C199" s="11"/>
+      <c r="C199" s="1"/>
     </row>
     <row r="200" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C200" s="11"/>
+      <c r="C200" s="1"/>
     </row>
     <row r="201" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C201" s="11"/>
+      <c r="C201" s="1"/>
     </row>
     <row r="202" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C202" s="11"/>
+      <c r="C202" s="1"/>
     </row>
     <row r="203" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C203" s="11"/>
+      <c r="C203" s="1"/>
     </row>
     <row r="204" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C204" s="11"/>
+      <c r="C204" s="1"/>
     </row>
     <row r="205" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C205" s="11"/>
+      <c r="C205" s="1"/>
     </row>
     <row r="206" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C206" s="11"/>
+      <c r="C206" s="1"/>
     </row>
     <row r="207" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C207" s="11"/>
+      <c r="C207" s="1"/>
     </row>
     <row r="208" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C208" s="11"/>
+      <c r="C208" s="1"/>
     </row>
     <row r="209" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C209" s="11"/>
+      <c r="C209" s="1"/>
     </row>
     <row r="210" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C210" s="11"/>
+      <c r="C210" s="1"/>
     </row>
     <row r="211" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C211" s="11"/>
+      <c r="C211" s="1"/>
     </row>
     <row r="212" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C212" s="11"/>
+      <c r="C212" s="1"/>
     </row>
     <row r="213" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C213" s="11"/>
+      <c r="C213" s="1"/>
     </row>
     <row r="214" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C214" s="11"/>
+      <c r="C214" s="1"/>
     </row>
     <row r="215" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C215" s="11"/>
+      <c r="C215" s="1"/>
     </row>
     <row r="216" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C216" s="11"/>
+      <c r="C216" s="1"/>
     </row>
     <row r="217" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C217" s="11"/>
+      <c r="C217" s="1"/>
     </row>
     <row r="218" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C218" s="11"/>
+      <c r="C218" s="1"/>
     </row>
     <row r="219" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C219" s="11"/>
+      <c r="C219" s="1"/>
     </row>
     <row r="220" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C220" s="11"/>
+      <c r="C220" s="1"/>
     </row>
     <row r="221" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C221" s="11"/>
+      <c r="C221" s="1"/>
     </row>
     <row r="222" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C222" s="11"/>
+      <c r="C222" s="1"/>
     </row>
     <row r="223" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C223" s="11"/>
+      <c r="C223" s="1"/>
     </row>
     <row r="224" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C224" s="11"/>
+      <c r="C224" s="1"/>
     </row>
     <row r="225" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C225" s="11"/>
+      <c r="C225" s="1"/>
     </row>
     <row r="226" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C226" s="11"/>
+      <c r="C226" s="1"/>
     </row>
     <row r="227" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C227" s="11"/>
+      <c r="C227" s="1"/>
     </row>
     <row r="228" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C228" s="11"/>
+      <c r="C228" s="1"/>
     </row>
     <row r="229" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C229" s="11"/>
+      <c r="C229" s="1"/>
     </row>
     <row r="230" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C230" s="11"/>
+      <c r="C230" s="1"/>
     </row>
     <row r="231" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C231" s="11"/>
+      <c r="C231" s="1"/>
     </row>
     <row r="232" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C232" s="11"/>
+      <c r="C232" s="1"/>
     </row>
     <row r="233" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C233" s="11"/>
+      <c r="C233" s="1"/>
     </row>
     <row r="234" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C234" s="11"/>
+      <c r="C234" s="1"/>
     </row>
     <row r="235" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C235" s="11"/>
+      <c r="C235" s="1"/>
     </row>
     <row r="236" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C236" s="11"/>
+      <c r="C236" s="1"/>
     </row>
     <row r="237" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C237" s="11"/>
+      <c r="C237" s="1"/>
     </row>
     <row r="238" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C238" s="11"/>
+      <c r="C238" s="1"/>
     </row>
     <row r="239" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C239" s="11"/>
+      <c r="C239" s="1"/>
     </row>
     <row r="240" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C240" s="11"/>
+      <c r="C240" s="1"/>
     </row>
     <row r="241" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C241" s="11"/>
+      <c r="C241" s="1"/>
     </row>
     <row r="242" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C242" s="11"/>
+      <c r="C242" s="1"/>
     </row>
     <row r="243" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C243" s="11"/>
+      <c r="C243" s="1"/>
     </row>
     <row r="244" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C244" s="11"/>
+      <c r="C244" s="1"/>
     </row>
     <row r="245" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C245" s="11"/>
+      <c r="C245" s="1"/>
     </row>
     <row r="246" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C246" s="11"/>
+      <c r="C246" s="1"/>
     </row>
     <row r="247" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C247" s="11"/>
+      <c r="C247" s="1"/>
     </row>
     <row r="248" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C248" s="11"/>
+      <c r="C248" s="1"/>
     </row>
     <row r="249" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C249" s="11"/>
+      <c r="C249" s="1"/>
     </row>
     <row r="250" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C250" s="11"/>
+      <c r="C250" s="1"/>
     </row>
     <row r="251" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C251" s="11"/>
+      <c r="C251" s="1"/>
     </row>
     <row r="252" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C252" s="11"/>
+      <c r="C252" s="1"/>
     </row>
     <row r="253" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C253" s="11"/>
+      <c r="C253" s="1"/>
     </row>
     <row r="254" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C254" s="11"/>
+      <c r="C254" s="1"/>
     </row>
     <row r="255" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C255" s="11"/>
+      <c r="C255" s="1"/>
     </row>
     <row r="256" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C256" s="11"/>
+      <c r="C256" s="1"/>
     </row>
     <row r="257" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C257" s="11"/>
+      <c r="C257" s="1"/>
     </row>
     <row r="258" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C258" s="11"/>
+      <c r="C258" s="1"/>
     </row>
     <row r="259" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C259" s="11"/>
+      <c r="C259" s="1"/>
     </row>
     <row r="260" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C260" s="11"/>
+      <c r="C260" s="1"/>
     </row>
     <row r="261" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C261" s="11"/>
+      <c r="C261" s="1"/>
     </row>
     <row r="262" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C262" s="11"/>
+      <c r="C262" s="1"/>
     </row>
     <row r="263" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C263" s="11"/>
+      <c r="C263" s="1"/>
     </row>
     <row r="264" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C264" s="11"/>
+      <c r="C264" s="1"/>
     </row>
     <row r="265" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C265" s="11"/>
+      <c r="C265" s="1"/>
     </row>
     <row r="266" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C266" s="11"/>
+      <c r="C266" s="1"/>
     </row>
     <row r="267" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C267" s="11"/>
+      <c r="C267" s="1"/>
     </row>
     <row r="268" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C268" s="11"/>
+      <c r="C268" s="1"/>
     </row>
     <row r="269" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C269" s="11"/>
+      <c r="C269" s="1"/>
     </row>
     <row r="270" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C270" s="11"/>
+      <c r="C270" s="1"/>
     </row>
     <row r="271" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C271" s="11"/>
+      <c r="C271" s="1"/>
     </row>
     <row r="272" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C272" s="11"/>
+      <c r="C272" s="1"/>
     </row>
     <row r="273" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C273" s="11"/>
+      <c r="C273" s="1"/>
     </row>
     <row r="274" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C274" s="11"/>
+      <c r="C274" s="1"/>
     </row>
     <row r="275" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C275" s="11"/>
+      <c r="C275" s="1"/>
     </row>
     <row r="276" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C276" s="11"/>
+      <c r="C276" s="1"/>
     </row>
     <row r="277" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C277" s="11"/>
+      <c r="C277" s="1"/>
     </row>
     <row r="278" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C278" s="11"/>
+      <c r="C278" s="1"/>
     </row>
     <row r="279" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C279" s="11"/>
+      <c r="C279" s="1"/>
     </row>
     <row r="280" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C280" s="11"/>
+      <c r="C280" s="1"/>
     </row>
     <row r="281" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C281" s="11"/>
+      <c r="C281" s="1"/>
     </row>
     <row r="282" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C282" s="11"/>
+      <c r="C282" s="1"/>
     </row>
     <row r="283" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C283" s="11"/>
+      <c r="C283" s="1"/>
     </row>
     <row r="284" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C284" s="11"/>
+      <c r="C284" s="1"/>
     </row>
     <row r="285" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C285" s="11"/>
+      <c r="C285" s="1"/>
     </row>
     <row r="286" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C286" s="11"/>
+      <c r="C286" s="1"/>
     </row>
     <row r="287" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C287" s="11"/>
+      <c r="C287" s="1"/>
     </row>
     <row r="288" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C288" s="11"/>
+      <c r="C288" s="1"/>
     </row>
     <row r="289" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C289" s="11"/>
+      <c r="C289" s="1"/>
     </row>
     <row r="290" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C290" s="11"/>
+      <c r="C290" s="1"/>
     </row>
     <row r="291" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C291" s="11"/>
+      <c r="C291" s="1"/>
     </row>
     <row r="292" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C292" s="11"/>
+      <c r="C292" s="1"/>
     </row>
     <row r="293" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C293" s="11"/>
+      <c r="C293" s="1"/>
     </row>
     <row r="294" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C294" s="11"/>
+      <c r="C294" s="1"/>
     </row>
     <row r="295" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C295" s="11"/>
+      <c r="C295" s="1"/>
     </row>
     <row r="296" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C296" s="11"/>
+      <c r="C296" s="1"/>
     </row>
     <row r="297" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C297" s="11"/>
+      <c r="C297" s="1"/>
     </row>
     <row r="298" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C298" s="11"/>
+      <c r="C298" s="1"/>
     </row>
     <row r="299" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C299" s="11"/>
+      <c r="C299" s="1"/>
     </row>
     <row r="300" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C300" s="11"/>
+      <c r="C300" s="1"/>
     </row>
     <row r="301" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C301" s="11"/>
+      <c r="C301" s="1"/>
     </row>
     <row r="302" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C302" s="11"/>
+      <c r="C302" s="1"/>
     </row>
     <row r="303" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C303" s="11"/>
+      <c r="C303" s="1"/>
     </row>
     <row r="304" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C304" s="11"/>
+      <c r="C304" s="1"/>
     </row>
     <row r="305" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C305" s="11"/>
+      <c r="C305" s="1"/>
     </row>
     <row r="306" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C306" s="11"/>
+      <c r="C306" s="1"/>
     </row>
     <row r="307" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C307" s="11"/>
+      <c r="C307" s="1"/>
     </row>
     <row r="308" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C308" s="11"/>
+      <c r="C308" s="1"/>
     </row>
     <row r="309" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C309" s="11"/>
+      <c r="C309" s="1"/>
     </row>
     <row r="310" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C310" s="11"/>
+      <c r="C310" s="1"/>
     </row>
     <row r="311" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C311" s="11"/>
+      <c r="C311" s="1"/>
     </row>
     <row r="312" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C312" s="11"/>
+      <c r="C312" s="1"/>
     </row>
     <row r="313" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C313" s="11"/>
+      <c r="C313" s="1"/>
     </row>
     <row r="314" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C314" s="11"/>
+      <c r="C314" s="1"/>
     </row>
     <row r="315" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C315" s="11"/>
+      <c r="C315" s="1"/>
     </row>
     <row r="316" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C316" s="11"/>
+      <c r="C316" s="1"/>
     </row>
     <row r="317" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C317" s="11"/>
+      <c r="C317" s="1"/>
     </row>
     <row r="318" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C318" s="11"/>
+      <c r="C318" s="1"/>
     </row>
     <row r="319" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C319" s="11"/>
+      <c r="C319" s="1"/>
     </row>
     <row r="320" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C320" s="11"/>
+      <c r="C320" s="1"/>
     </row>
     <row r="321" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C321" s="11"/>
+      <c r="C321" s="1"/>
     </row>
     <row r="322" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C322" s="11"/>
+      <c r="C322" s="1"/>
     </row>
     <row r="323" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C323" s="11"/>
+      <c r="C323" s="1"/>
     </row>
     <row r="324" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C324" s="11"/>
+      <c r="C324" s="1"/>
     </row>
     <row r="325" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C325" s="11"/>
+      <c r="C325" s="1"/>
     </row>
     <row r="326" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C326" s="11"/>
+      <c r="C326" s="1"/>
     </row>
     <row r="327" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C327" s="11"/>
+      <c r="C327" s="1"/>
     </row>
     <row r="328" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C328" s="11"/>
+      <c r="C328" s="1"/>
     </row>
     <row r="329" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C329" s="11"/>
+      <c r="C329" s="1"/>
     </row>
     <row r="330" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C330" s="11"/>
+      <c r="C330" s="1"/>
     </row>
     <row r="331" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C331" s="11"/>
+      <c r="C331" s="1"/>
     </row>
     <row r="332" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C332" s="11"/>
+      <c r="C332" s="1"/>
     </row>
     <row r="333" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C333" s="11"/>
+      <c r="C333" s="1"/>
     </row>
     <row r="334" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C334" s="11"/>
+      <c r="C334" s="1"/>
     </row>
     <row r="335" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C335" s="11"/>
+      <c r="C335" s="1"/>
     </row>
     <row r="336" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C336" s="11"/>
+      <c r="C336" s="1"/>
     </row>
     <row r="337" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C337" s="11"/>
+      <c r="C337" s="1"/>
     </row>
     <row r="338" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C338" s="11"/>
+      <c r="C338" s="1"/>
     </row>
     <row r="339" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C339" s="11"/>
+      <c r="C339" s="1"/>
     </row>
     <row r="340" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C340" s="11"/>
+      <c r="C340" s="1"/>
     </row>
     <row r="341" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C341" s="11"/>
+      <c r="C341" s="1"/>
     </row>
     <row r="342" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C342" s="11"/>
+      <c r="C342" s="1"/>
     </row>
     <row r="343" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C343" s="11"/>
+      <c r="C343" s="1"/>
     </row>
     <row r="344" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C344" s="11"/>
+      <c r="C344" s="1"/>
     </row>
     <row r="345" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C345" s="11"/>
+      <c r="C345" s="1"/>
     </row>
     <row r="346" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C346" s="11"/>
+      <c r="C346" s="1"/>
     </row>
     <row r="347" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C347" s="11"/>
+      <c r="C347" s="1"/>
     </row>
     <row r="348" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C348" s="11"/>
+      <c r="C348" s="1"/>
     </row>
     <row r="349" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C349" s="11"/>
+      <c r="C349" s="1"/>
     </row>
     <row r="350" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C350" s="11"/>
+      <c r="C350" s="1"/>
     </row>
     <row r="351" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C351" s="11"/>
+      <c r="C351" s="1"/>
     </row>
     <row r="352" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C352" s="11"/>
+      <c r="C352" s="1"/>
     </row>
     <row r="353" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C353" s="11"/>
+      <c r="C353" s="1"/>
     </row>
     <row r="354" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C354" s="11"/>
+      <c r="C354" s="1"/>
     </row>
     <row r="355" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C355" s="11"/>
+      <c r="C355" s="1"/>
     </row>
     <row r="356" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C356" s="11"/>
+      <c r="C356" s="1"/>
     </row>
     <row r="357" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C357" s="11"/>
+      <c r="C357" s="1"/>
     </row>
     <row r="358" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C358" s="11"/>
+      <c r="C358" s="1"/>
     </row>
     <row r="359" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C359" s="11"/>
+      <c r="C359" s="1"/>
     </row>
     <row r="360" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C360" s="11"/>
+      <c r="C360" s="1"/>
     </row>
     <row r="361" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C361" s="11"/>
+      <c r="C361" s="1"/>
     </row>
     <row r="362" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C362" s="11"/>
+      <c r="C362" s="1"/>
     </row>
     <row r="363" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C363" s="11"/>
+      <c r="C363" s="1"/>
     </row>
     <row r="364" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C364" s="11"/>
+      <c r="C364" s="1"/>
     </row>
     <row r="365" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C365" s="11"/>
+      <c r="C365" s="1"/>
     </row>
     <row r="366" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C366" s="11"/>
+      <c r="C366" s="1"/>
     </row>
     <row r="367" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C367" s="11"/>
+      <c r="C367" s="1"/>
     </row>
     <row r="368" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C368" s="11"/>
+      <c r="C368" s="1"/>
     </row>
     <row r="369" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C369" s="11"/>
+      <c r="C369" s="1"/>
     </row>
     <row r="370" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C370" s="11"/>
+      <c r="C370" s="1"/>
     </row>
     <row r="371" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C371" s="11"/>
+      <c r="C371" s="1"/>
     </row>
     <row r="372" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C372" s="11"/>
+      <c r="C372" s="1"/>
     </row>
     <row r="373" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C373" s="11"/>
+      <c r="C373" s="1"/>
     </row>
     <row r="374" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C374" s="11"/>
+      <c r="C374" s="1"/>
     </row>
     <row r="375" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C375" s="11"/>
+      <c r="C375" s="1"/>
     </row>
     <row r="376" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C376" s="11"/>
+      <c r="C376" s="1"/>
     </row>
     <row r="377" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C377" s="11"/>
+      <c r="C377" s="1"/>
     </row>
     <row r="378" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C378" s="11"/>
+      <c r="C378" s="1"/>
     </row>
     <row r="379" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C379" s="11"/>
+      <c r="C379" s="1"/>
     </row>
     <row r="380" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C380" s="11"/>
+      <c r="C380" s="1"/>
     </row>
     <row r="381" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C381" s="11"/>
+      <c r="C381" s="1"/>
     </row>
     <row r="382" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C382" s="11"/>
+      <c r="C382" s="1"/>
     </row>
     <row r="383" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C383" s="11"/>
+      <c r="C383" s="1"/>
     </row>
     <row r="384" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C384" s="11"/>
+      <c r="C384" s="1"/>
     </row>
     <row r="385" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C385" s="11"/>
+      <c r="C385" s="1"/>
     </row>
     <row r="386" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C386" s="11"/>
+      <c r="C386" s="1"/>
     </row>
     <row r="387" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C387" s="11"/>
+      <c r="C387" s="1"/>
     </row>
     <row r="388" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C388" s="11"/>
+      <c r="C388" s="1"/>
     </row>
     <row r="389" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C389" s="11"/>
+      <c r="C389" s="1"/>
     </row>
     <row r="390" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C390" s="11"/>
+      <c r="C390" s="1"/>
     </row>
     <row r="391" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C391" s="11"/>
+      <c r="C391" s="1"/>
     </row>
     <row r="392" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C392" s="11"/>
+      <c r="C392" s="1"/>
     </row>
     <row r="393" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C393" s="11"/>
+      <c r="C393" s="1"/>
     </row>
     <row r="394" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C394" s="11"/>
+      <c r="C394" s="1"/>
     </row>
     <row r="395" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C395" s="11"/>
+      <c r="C395" s="1"/>
     </row>
     <row r="396" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C396" s="11"/>
+      <c r="C396" s="1"/>
     </row>
     <row r="397" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C397" s="11"/>
+      <c r="C397" s="1"/>
     </row>
     <row r="398" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C398" s="11"/>
+      <c r="C398" s="1"/>
     </row>
     <row r="399" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C399" s="11"/>
+      <c r="C399" s="1"/>
     </row>
     <row r="400" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C400" s="11"/>
+      <c r="C400" s="1"/>
     </row>
     <row r="401" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C401" s="11"/>
+      <c r="C401" s="1"/>
     </row>
     <row r="402" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C402" s="11"/>
+      <c r="C402" s="1"/>
     </row>
     <row r="403" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C403" s="11"/>
+      <c r="C403" s="1"/>
     </row>
     <row r="404" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C404" s="11"/>
+      <c r="C404" s="1"/>
     </row>
     <row r="405" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C405" s="11"/>
+      <c r="C405" s="1"/>
     </row>
     <row r="406" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C406" s="11"/>
+      <c r="C406" s="1"/>
     </row>
     <row r="407" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C407" s="11"/>
+      <c r="C407" s="1"/>
     </row>
     <row r="408" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C408" s="11"/>
+      <c r="C408" s="1"/>
     </row>
     <row r="409" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C409" s="11"/>
+      <c r="C409" s="1"/>
     </row>
     <row r="410" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C410" s="11"/>
+      <c r="C410" s="1"/>
     </row>
     <row r="411" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C411" s="11"/>
+      <c r="C411" s="1"/>
     </row>
     <row r="412" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C412" s="11"/>
+      <c r="C412" s="1"/>
     </row>
     <row r="413" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C413" s="11"/>
+      <c r="C413" s="1"/>
     </row>
     <row r="414" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C414" s="11"/>
+      <c r="C414" s="1"/>
     </row>
     <row r="415" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C415" s="11"/>
+      <c r="C415" s="1"/>
     </row>
     <row r="416" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C416" s="11"/>
+      <c r="C416" s="1"/>
     </row>
     <row r="417" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C417" s="11"/>
+      <c r="C417" s="1"/>
     </row>
     <row r="418" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C418" s="11"/>
+      <c r="C418" s="1"/>
     </row>
     <row r="419" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C419" s="11"/>
+      <c r="C419" s="1"/>
     </row>
     <row r="420" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C420" s="11"/>
+      <c r="C420" s="1"/>
     </row>
     <row r="421" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C421" s="11"/>
+      <c r="C421" s="1"/>
     </row>
     <row r="422" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C422" s="11"/>
+      <c r="C422" s="1"/>
     </row>
     <row r="423" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C423" s="11"/>
+      <c r="C423" s="1"/>
     </row>
     <row r="424" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C424" s="11"/>
+      <c r="C424" s="1"/>
     </row>
     <row r="425" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C425" s="11"/>
+      <c r="C425" s="1"/>
     </row>
     <row r="426" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C426" s="11"/>
+      <c r="C426" s="1"/>
     </row>
     <row r="427" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C427" s="11"/>
+      <c r="C427" s="1"/>
     </row>
     <row r="428" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C428" s="11"/>
+      <c r="C428" s="1"/>
     </row>
     <row r="429" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C429" s="11"/>
+      <c r="C429" s="1"/>
     </row>
     <row r="430" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C430" s="11"/>
+      <c r="C430" s="1"/>
     </row>
     <row r="431" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C431" s="11"/>
+      <c r="C431" s="1"/>
     </row>
     <row r="432" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C432" s="11"/>
+      <c r="C432" s="1"/>
     </row>
     <row r="433" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C433" s="11"/>
+      <c r="C433" s="1"/>
     </row>
     <row r="434" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C434" s="11"/>
+      <c r="C434" s="1"/>
     </row>
     <row r="435" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C435" s="11"/>
+      <c r="C435" s="1"/>
     </row>
     <row r="436" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C436" s="11"/>
+      <c r="C436" s="1"/>
     </row>
     <row r="437" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C437" s="11"/>
+      <c r="C437" s="1"/>
     </row>
     <row r="438" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C438" s="11"/>
+      <c r="C438" s="1"/>
     </row>
     <row r="439" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C439" s="11"/>
+      <c r="C439" s="1"/>
     </row>
     <row r="440" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C440" s="11"/>
+      <c r="C440" s="1"/>
     </row>
     <row r="441" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C441" s="11"/>
+      <c r="C441" s="1"/>
     </row>
     <row r="442" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C442" s="11"/>
+      <c r="C442" s="1"/>
     </row>
     <row r="443" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C443" s="11"/>
+      <c r="C443" s="1"/>
     </row>
     <row r="444" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C444" s="11"/>
+      <c r="C444" s="1"/>
     </row>
     <row r="445" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C445" s="11"/>
+      <c r="C445" s="1"/>
     </row>
     <row r="446" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C446" s="11"/>
+      <c r="C446" s="1"/>
     </row>
     <row r="447" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C447" s="11"/>
+      <c r="C447" s="1"/>
     </row>
     <row r="448" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C448" s="11"/>
+      <c r="C448" s="1"/>
     </row>
     <row r="449" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C449" s="11"/>
+      <c r="C449" s="1"/>
     </row>
     <row r="450" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C450" s="11"/>
+      <c r="C450" s="1"/>
     </row>
     <row r="451" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C451" s="11"/>
+      <c r="C451" s="1"/>
     </row>
     <row r="452" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C452" s="11"/>
+      <c r="C452" s="1"/>
     </row>
     <row r="453" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C453" s="11"/>
+      <c r="C453" s="1"/>
     </row>
     <row r="454" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C454" s="11"/>
+      <c r="C454" s="1"/>
     </row>
     <row r="455" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C455" s="11"/>
+      <c r="C455" s="1"/>
     </row>
     <row r="456" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C456" s="11"/>
+      <c r="C456" s="1"/>
     </row>
     <row r="457" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C457" s="11"/>
+      <c r="C457" s="1"/>
     </row>
     <row r="458" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C458" s="11"/>
+      <c r="C458" s="1"/>
     </row>
     <row r="459" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C459" s="11"/>
+      <c r="C459" s="1"/>
     </row>
     <row r="460" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C460" s="11"/>
+      <c r="C460" s="1"/>
     </row>
     <row r="461" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C461" s="11"/>
+      <c r="C461" s="1"/>
     </row>
     <row r="462" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C462" s="11"/>
+      <c r="C462" s="1"/>
     </row>
     <row r="463" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C463" s="11"/>
+      <c r="C463" s="1"/>
     </row>
     <row r="464" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C464" s="11"/>
+      <c r="C464" s="1"/>
     </row>
     <row r="465" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C465" s="11"/>
+      <c r="C465" s="1"/>
     </row>
     <row r="466" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C466" s="11"/>
+      <c r="C466" s="1"/>
     </row>
     <row r="467" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C467" s="11"/>
+      <c r="C467" s="1"/>
     </row>
     <row r="468" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C468" s="11"/>
+      <c r="C468" s="1"/>
     </row>
     <row r="469" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C469" s="11"/>
+      <c r="C469" s="1"/>
     </row>
     <row r="470" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C470" s="11"/>
+      <c r="C470" s="1"/>
     </row>
     <row r="471" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C471" s="11"/>
+      <c r="C471" s="1"/>
     </row>
     <row r="472" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C472" s="11"/>
+      <c r="C472" s="1"/>
     </row>
     <row r="473" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C473" s="11"/>
+      <c r="C473" s="1"/>
     </row>
     <row r="474" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C474" s="11"/>
+      <c r="C474" s="1"/>
     </row>
     <row r="475" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C475" s="11"/>
+      <c r="C475" s="1"/>
     </row>
     <row r="476" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C476" s="11"/>
+      <c r="C476" s="1"/>
     </row>
     <row r="477" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C477" s="11"/>
+      <c r="C477" s="1"/>
     </row>
     <row r="478" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C478" s="11"/>
+      <c r="C478" s="1"/>
     </row>
     <row r="479" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C479" s="11"/>
+      <c r="C479" s="1"/>
     </row>
     <row r="480" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C480" s="11"/>
+      <c r="C480" s="1"/>
     </row>
     <row r="481" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C481" s="11"/>
+      <c r="C481" s="1"/>
     </row>
     <row r="482" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C482" s="11"/>
+      <c r="C482" s="1"/>
     </row>
     <row r="483" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C483" s="11"/>
+      <c r="C483" s="1"/>
     </row>
     <row r="484" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C484" s="11"/>
+      <c r="C484" s="1"/>
     </row>
     <row r="485" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C485" s="11"/>
+      <c r="C485" s="1"/>
     </row>
     <row r="486" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C486" s="11"/>
+      <c r="C486" s="1"/>
     </row>
     <row r="487" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C487" s="11"/>
+      <c r="C487" s="1"/>
     </row>
     <row r="488" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C488" s="11"/>
+      <c r="C488" s="1"/>
     </row>
     <row r="489" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C489" s="11"/>
+      <c r="C489" s="1"/>
     </row>
     <row r="490" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C490" s="11"/>
+      <c r="C490" s="1"/>
     </row>
     <row r="491" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C491" s="11"/>
+      <c r="C491" s="1"/>
     </row>
     <row r="492" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C492" s="11"/>
+      <c r="C492" s="1"/>
     </row>
     <row r="493" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C493" s="11"/>
+      <c r="C493" s="1"/>
     </row>
     <row r="494" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C494" s="11"/>
+      <c r="C494" s="1"/>
     </row>
     <row r="495" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C495" s="11"/>
+      <c r="C495" s="1"/>
     </row>
     <row r="496" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C496" s="11"/>
+      <c r="C496" s="1"/>
     </row>
     <row r="497" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C497" s="11"/>
+      <c r="C497" s="1"/>
     </row>
     <row r="498" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C498" s="11"/>
+      <c r="C498" s="1"/>
     </row>
     <row r="499" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C499" s="11"/>
+      <c r="C499" s="1"/>
     </row>
     <row r="500" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C500" s="11"/>
+      <c r="C500" s="1"/>
     </row>
     <row r="501" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C501" s="11"/>
+      <c r="C501" s="1"/>
     </row>
     <row r="502" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C502" s="11"/>
+      <c r="C502" s="1"/>
     </row>
     <row r="503" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C503" s="11"/>
+      <c r="C503" s="1"/>
     </row>
     <row r="504" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C504" s="11"/>
+      <c r="C504" s="1"/>
     </row>
     <row r="505" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C505" s="11"/>
+      <c r="C505" s="1"/>
     </row>
     <row r="506" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C506" s="11"/>
+      <c r="C506" s="1"/>
     </row>
     <row r="507" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C507" s="11"/>
+      <c r="C507" s="1"/>
     </row>
     <row r="508" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C508" s="11"/>
+      <c r="C508" s="1"/>
     </row>
     <row r="509" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C509" s="11"/>
+      <c r="C509" s="1"/>
     </row>
     <row r="510" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C510" s="11"/>
+      <c r="C510" s="1"/>
     </row>
     <row r="511" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C511" s="11"/>
+      <c r="C511" s="1"/>
     </row>
     <row r="512" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C512" s="11"/>
+      <c r="C512" s="1"/>
     </row>
     <row r="513" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C513" s="11"/>
+      <c r="C513" s="1"/>
     </row>
     <row r="514" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C514" s="11"/>
+      <c r="C514" s="1"/>
     </row>
     <row r="515" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C515" s="11"/>
+      <c r="C515" s="1"/>
     </row>
     <row r="516" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C516" s="11"/>
+      <c r="C516" s="1"/>
     </row>
     <row r="517" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C517" s="11"/>
+      <c r="C517" s="1"/>
     </row>
     <row r="518" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C518" s="11"/>
+      <c r="C518" s="1"/>
     </row>
     <row r="519" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C519" s="11"/>
+      <c r="C519" s="1"/>
     </row>
     <row r="520" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C520" s="11"/>
+      <c r="C520" s="1"/>
     </row>
     <row r="521" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C521" s="11"/>
+      <c r="C521" s="1"/>
     </row>
     <row r="522" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C522" s="11"/>
+      <c r="C522" s="1"/>
     </row>
     <row r="523" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C523" s="11"/>
+      <c r="C523" s="1"/>
     </row>
     <row r="524" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C524" s="11"/>
+      <c r="C524" s="1"/>
     </row>
     <row r="525" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C525" s="11"/>
+      <c r="C525" s="1"/>
     </row>
     <row r="526" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C526" s="11"/>
+      <c r="C526" s="1"/>
     </row>
     <row r="527" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C527" s="11"/>
+      <c r="C527" s="1"/>
     </row>
     <row r="528" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C528" s="11"/>
+      <c r="C528" s="1"/>
     </row>
     <row r="529" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C529" s="11"/>
+      <c r="C529" s="1"/>
     </row>
     <row r="530" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C530" s="11"/>
+      <c r="C530" s="1"/>
     </row>
     <row r="531" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C531" s="11"/>
+      <c r="C531" s="1"/>
     </row>
     <row r="532" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C532" s="11"/>
+      <c r="C532" s="1"/>
     </row>
     <row r="533" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C533" s="11"/>
+      <c r="C533" s="1"/>
     </row>
     <row r="534" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C534" s="11"/>
+      <c r="C534" s="1"/>
     </row>
     <row r="535" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C535" s="11"/>
+      <c r="C535" s="1"/>
     </row>
     <row r="536" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C536" s="11"/>
+      <c r="C536" s="1"/>
     </row>
     <row r="537" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C537" s="11"/>
+      <c r="C537" s="1"/>
     </row>
     <row r="538" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C538" s="11"/>
+      <c r="C538" s="1"/>
     </row>
     <row r="539" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C539" s="11"/>
+      <c r="C539" s="1"/>
     </row>
     <row r="540" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C540" s="11"/>
+      <c r="C540" s="1"/>
     </row>
     <row r="541" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C541" s="11"/>
+      <c r="C541" s="1"/>
     </row>
     <row r="542" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C542" s="11"/>
+      <c r="C542" s="1"/>
     </row>
     <row r="543" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C543" s="11"/>
+      <c r="C543" s="1"/>
     </row>
     <row r="544" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C544" s="11"/>
+      <c r="C544" s="1"/>
     </row>
     <row r="545" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C545" s="11"/>
+      <c r="C545" s="1"/>
     </row>
     <row r="546" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C546" s="11"/>
+      <c r="C546" s="1"/>
     </row>
     <row r="547" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C547" s="11"/>
+      <c r="C547" s="1"/>
     </row>
     <row r="548" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C548" s="11"/>
+      <c r="C548" s="1"/>
     </row>
     <row r="549" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C549" s="11"/>
+      <c r="C549" s="1"/>
     </row>
     <row r="550" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C550" s="11"/>
+      <c r="C550" s="1"/>
     </row>
     <row r="551" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C551" s="11"/>
+      <c r="C551" s="1"/>
     </row>
     <row r="552" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C552" s="11"/>
+      <c r="C552" s="1"/>
     </row>
     <row r="553" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C553" s="11"/>
+      <c r="C553" s="1"/>
     </row>
     <row r="554" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C554" s="11"/>
+      <c r="C554" s="1"/>
     </row>
     <row r="555" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C555" s="11"/>
+      <c r="C555" s="1"/>
     </row>
     <row r="556" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C556" s="11"/>
+      <c r="C556" s="1"/>
     </row>
     <row r="557" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C557" s="11"/>
+      <c r="C557" s="1"/>
     </row>
     <row r="558" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C558" s="11"/>
+      <c r="C558" s="1"/>
     </row>
     <row r="559" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C559" s="11"/>
+      <c r="C559" s="1"/>
     </row>
     <row r="560" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C560" s="11"/>
+      <c r="C560" s="1"/>
     </row>
     <row r="561" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C561" s="11"/>
+      <c r="C561" s="1"/>
     </row>
     <row r="562" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C562" s="11"/>
+      <c r="C562" s="1"/>
     </row>
     <row r="563" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C563" s="11"/>
+      <c r="C563" s="1"/>
     </row>
     <row r="564" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C564" s="11"/>
+      <c r="C564" s="1"/>
     </row>
     <row r="565" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C565" s="11"/>
+      <c r="C565" s="1"/>
     </row>
     <row r="566" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C566" s="11"/>
+      <c r="C566" s="1"/>
     </row>
     <row r="567" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C567" s="11"/>
+      <c r="C567" s="1"/>
     </row>
     <row r="568" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C568" s="11"/>
+      <c r="C568" s="1"/>
     </row>
     <row r="569" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C569" s="11"/>
+      <c r="C569" s="1"/>
     </row>
     <row r="570" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C570" s="11"/>
+      <c r="C570" s="1"/>
     </row>
     <row r="571" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C571" s="11"/>
+      <c r="C571" s="1"/>
     </row>
     <row r="572" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C572" s="11"/>
+      <c r="C572" s="1"/>
     </row>
     <row r="573" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C573" s="11"/>
+      <c r="C573" s="1"/>
     </row>
     <row r="574" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C574" s="11"/>
+      <c r="C574" s="1"/>
     </row>
     <row r="575" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C575" s="11"/>
+      <c r="C575" s="1"/>
     </row>
     <row r="576" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C576" s="11"/>
+      <c r="C576" s="1"/>
     </row>
     <row r="577" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C577" s="11"/>
+      <c r="C577" s="1"/>
     </row>
     <row r="578" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C578" s="11"/>
+      <c r="C578" s="1"/>
     </row>
     <row r="579" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C579" s="11"/>
+      <c r="C579" s="1"/>
     </row>
     <row r="580" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C580" s="11"/>
+      <c r="C580" s="1"/>
     </row>
     <row r="581" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C581" s="11"/>
+      <c r="C581" s="1"/>
     </row>
     <row r="582" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C582" s="11"/>
+      <c r="C582" s="1"/>
     </row>
     <row r="583" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C583" s="11"/>
+      <c r="C583" s="1"/>
     </row>
     <row r="584" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C584" s="11"/>
+      <c r="C584" s="1"/>
     </row>
     <row r="585" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C585" s="11"/>
+      <c r="C585" s="1"/>
     </row>
     <row r="586" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C586" s="11"/>
+      <c r="C586" s="1"/>
     </row>
     <row r="587" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C587" s="11"/>
+      <c r="C587" s="1"/>
     </row>
     <row r="588" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C588" s="11"/>
+      <c r="C588" s="1"/>
     </row>
     <row r="589" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C589" s="11"/>
+      <c r="C589" s="1"/>
     </row>
     <row r="590" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C590" s="11"/>
+      <c r="C590" s="1"/>
     </row>
     <row r="591" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C591" s="11"/>
+      <c r="C591" s="1"/>
     </row>
     <row r="592" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C592" s="11"/>
+      <c r="C592" s="1"/>
     </row>
     <row r="593" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C593" s="11"/>
+      <c r="C593" s="1"/>
     </row>
     <row r="594" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C594" s="11"/>
+      <c r="C594" s="1"/>
     </row>
     <row r="595" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C595" s="11"/>
+      <c r="C595" s="1"/>
     </row>
     <row r="596" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C596" s="11"/>
+      <c r="C596" s="1"/>
     </row>
     <row r="597" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C597" s="11"/>
+      <c r="C597" s="1"/>
     </row>
     <row r="598" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C598" s="11"/>
+      <c r="C598" s="1"/>
     </row>
     <row r="599" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C599" s="11"/>
+      <c r="C599" s="1"/>
     </row>
     <row r="600" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C600" s="11"/>
+      <c r="C600" s="1"/>
     </row>
     <row r="601" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C601" s="11"/>
+      <c r="C601" s="1"/>
     </row>
     <row r="602" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C602" s="11"/>
+      <c r="C602" s="1"/>
     </row>
     <row r="603" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C603" s="11"/>
+      <c r="C603" s="1"/>
     </row>
     <row r="604" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C604" s="11"/>
+      <c r="C604" s="1"/>
     </row>
     <row r="605" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C605" s="11"/>
+      <c r="C605" s="1"/>
     </row>
     <row r="606" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C606" s="11"/>
+      <c r="C606" s="1"/>
     </row>
     <row r="607" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C607" s="11"/>
+      <c r="C607" s="1"/>
     </row>
     <row r="608" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C608" s="11"/>
+      <c r="C608" s="1"/>
     </row>
     <row r="609" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C609" s="11"/>
+      <c r="C609" s="1"/>
     </row>
     <row r="610" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C610" s="11"/>
+      <c r="C610" s="1"/>
     </row>
     <row r="611" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C611" s="11"/>
+      <c r="C611" s="1"/>
     </row>
     <row r="612" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C612" s="11"/>
+      <c r="C612" s="1"/>
     </row>
     <row r="613" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C613" s="11"/>
+      <c r="C613" s="1"/>
     </row>
     <row r="614" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C614" s="11"/>
+      <c r="C614" s="1"/>
     </row>
     <row r="615" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C615" s="11"/>
+      <c r="C615" s="1"/>
     </row>
     <row r="616" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C616" s="11"/>
+      <c r="C616" s="1"/>
     </row>
     <row r="617" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C617" s="11"/>
+      <c r="C617" s="1"/>
     </row>
     <row r="618" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C618" s="11"/>
+      <c r="C618" s="1"/>
     </row>
     <row r="619" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C619" s="11"/>
+      <c r="C619" s="1"/>
     </row>
     <row r="620" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C620" s="11"/>
+      <c r="C620" s="1"/>
     </row>
     <row r="621" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C621" s="11"/>
+      <c r="C621" s="1"/>
     </row>
     <row r="622" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C622" s="11"/>
+      <c r="C622" s="1"/>
     </row>
     <row r="623" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C623" s="11"/>
+      <c r="C623" s="1"/>
     </row>
     <row r="624" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C624" s="11"/>
+      <c r="C624" s="1"/>
     </row>
     <row r="625" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C625" s="11"/>
+      <c r="C625" s="1"/>
     </row>
     <row r="626" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C626" s="11"/>
+      <c r="C626" s="1"/>
     </row>
     <row r="627" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C627" s="11"/>
+      <c r="C627" s="1"/>
     </row>
     <row r="628" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C628" s="11"/>
+      <c r="C628" s="1"/>
     </row>
     <row r="629" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C629" s="11"/>
+      <c r="C629" s="1"/>
     </row>
     <row r="630" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C630" s="11"/>
+      <c r="C630" s="1"/>
     </row>
     <row r="631" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C631" s="11"/>
+      <c r="C631" s="1"/>
     </row>
     <row r="632" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C632" s="11"/>
+      <c r="C632" s="1"/>
     </row>
     <row r="633" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C633" s="11"/>
+      <c r="C633" s="1"/>
     </row>
     <row r="634" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C634" s="11"/>
+      <c r="C634" s="1"/>
     </row>
     <row r="635" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C635" s="11"/>
+      <c r="C635" s="1"/>
     </row>
     <row r="636" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C636" s="11"/>
+      <c r="C636" s="1"/>
     </row>
     <row r="637" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C637" s="11"/>
+      <c r="C637" s="1"/>
     </row>
     <row r="638" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C638" s="11"/>
+      <c r="C638" s="1"/>
     </row>
     <row r="639" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C639" s="11"/>
+      <c r="C639" s="1"/>
     </row>
     <row r="640" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C640" s="11"/>
+      <c r="C640" s="1"/>
     </row>
     <row r="641" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C641" s="11"/>
+      <c r="C641" s="1"/>
     </row>
     <row r="642" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C642" s="11"/>
+      <c r="C642" s="1"/>
     </row>
     <row r="643" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C643" s="11"/>
+      <c r="C643" s="1"/>
     </row>
     <row r="644" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C644" s="11"/>
+      <c r="C644" s="1"/>
     </row>
     <row r="645" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C645" s="11"/>
+      <c r="C645" s="1"/>
     </row>
     <row r="646" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C646" s="11"/>
+      <c r="C646" s="1"/>
     </row>
     <row r="647" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C647" s="11"/>
+      <c r="C647" s="1"/>
     </row>
     <row r="648" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C648" s="11"/>
+      <c r="C648" s="1"/>
     </row>
     <row r="649" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C649" s="11"/>
+      <c r="C649" s="1"/>
     </row>
     <row r="650" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C650" s="11"/>
+      <c r="C650" s="1"/>
     </row>
     <row r="651" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C651" s="11"/>
+      <c r="C651" s="1"/>
     </row>
     <row r="652" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C652" s="11"/>
+      <c r="C652" s="1"/>
     </row>
     <row r="653" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C653" s="11"/>
+      <c r="C653" s="1"/>
     </row>
     <row r="654" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C654" s="11"/>
+      <c r="C654" s="1"/>
     </row>
     <row r="655" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C655" s="11"/>
+      <c r="C655" s="1"/>
     </row>
     <row r="656" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C656" s="11"/>
+      <c r="C656" s="1"/>
     </row>
     <row r="657" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C657" s="11"/>
+      <c r="C657" s="1"/>
     </row>
     <row r="658" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C658" s="11"/>
+      <c r="C658" s="1"/>
     </row>
     <row r="659" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C659" s="11"/>
+      <c r="C659" s="1"/>
     </row>
     <row r="660" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C660" s="11"/>
+      <c r="C660" s="1"/>
     </row>
     <row r="661" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C661" s="11"/>
+      <c r="C661" s="1"/>
     </row>
     <row r="662" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C662" s="11"/>
+      <c r="C662" s="1"/>
     </row>
     <row r="663" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C663" s="11"/>
+      <c r="C663" s="1"/>
     </row>
     <row r="664" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C664" s="11"/>
+      <c r="C664" s="1"/>
     </row>
     <row r="665" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C665" s="11"/>
+      <c r="C665" s="1"/>
     </row>
     <row r="666" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C666" s="11"/>
+      <c r="C666" s="1"/>
     </row>
     <row r="667" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C667" s="11"/>
+      <c r="C667" s="1"/>
     </row>
     <row r="668" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C668" s="11"/>
+      <c r="C668" s="1"/>
     </row>
     <row r="669" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C669" s="11"/>
+      <c r="C669" s="1"/>
     </row>
     <row r="670" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C670" s="11"/>
+      <c r="C670" s="1"/>
     </row>
     <row r="671" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C671" s="11"/>
+      <c r="C671" s="1"/>
     </row>
     <row r="672" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C672" s="11"/>
+      <c r="C672" s="1"/>
     </row>
     <row r="673" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C673" s="11"/>
+      <c r="C673" s="1"/>
     </row>
     <row r="674" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C674" s="11"/>
+      <c r="C674" s="1"/>
     </row>
     <row r="675" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C675" s="11"/>
+      <c r="C675" s="1"/>
     </row>
     <row r="676" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C676" s="11"/>
+      <c r="C676" s="1"/>
     </row>
     <row r="677" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C677" s="11"/>
+      <c r="C677" s="1"/>
     </row>
     <row r="678" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C678" s="11"/>
+      <c r="C678" s="1"/>
     </row>
     <row r="679" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C679" s="11"/>
+      <c r="C679" s="1"/>
     </row>
     <row r="680" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C680" s="11"/>
+      <c r="C680" s="1"/>
     </row>
     <row r="681" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C681" s="11"/>
+      <c r="C681" s="1"/>
     </row>
     <row r="682" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C682" s="11"/>
+      <c r="C682" s="1"/>
     </row>
     <row r="683" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C683" s="11"/>
+      <c r="C683" s="1"/>
     </row>
     <row r="684" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C684" s="11"/>
+      <c r="C684" s="1"/>
     </row>
     <row r="685" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C685" s="11"/>
+      <c r="C685" s="1"/>
     </row>
     <row r="686" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C686" s="11"/>
+      <c r="C686" s="1"/>
     </row>
     <row r="687" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C687" s="11"/>
+      <c r="C687" s="1"/>
     </row>
     <row r="688" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C688" s="11"/>
+      <c r="C688" s="1"/>
     </row>
     <row r="689" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C689" s="11"/>
+      <c r="C689" s="1"/>
     </row>
     <row r="690" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C690" s="11"/>
+      <c r="C690" s="1"/>
     </row>
     <row r="691" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C691" s="11"/>
+      <c r="C691" s="1"/>
     </row>
     <row r="692" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C692" s="11"/>
+      <c r="C692" s="1"/>
     </row>
     <row r="693" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C693" s="11"/>
+      <c r="C693" s="1"/>
     </row>
     <row r="694" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C694" s="11"/>
+      <c r="C694" s="1"/>
     </row>
     <row r="695" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C695" s="11"/>
+      <c r="C695" s="1"/>
     </row>
     <row r="696" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C696" s="11"/>
+      <c r="C696" s="1"/>
     </row>
     <row r="697" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C697" s="11"/>
+      <c r="C697" s="1"/>
     </row>
     <row r="698" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C698" s="11"/>
+      <c r="C698" s="1"/>
     </row>
     <row r="699" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C699" s="11"/>
+      <c r="C699" s="1"/>
     </row>
     <row r="700" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C700" s="11"/>
+      <c r="C700" s="1"/>
     </row>
     <row r="701" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C701" s="11"/>
+      <c r="C701" s="1"/>
     </row>
     <row r="702" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C702" s="11"/>
+      <c r="C702" s="1"/>
     </row>
     <row r="703" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C703" s="11"/>
+      <c r="C703" s="1"/>
     </row>
     <row r="704" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C704" s="11"/>
+      <c r="C704" s="1"/>
     </row>
     <row r="705" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C705" s="11"/>
+      <c r="C705" s="1"/>
     </row>
     <row r="706" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C706" s="11"/>
+      <c r="C706" s="1"/>
     </row>
     <row r="707" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C707" s="11"/>
+      <c r="C707" s="1"/>
     </row>
     <row r="708" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C708" s="11"/>
+      <c r="C708" s="1"/>
     </row>
     <row r="709" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C709" s="11"/>
+      <c r="C709" s="1"/>
     </row>
     <row r="710" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C710" s="11"/>
+      <c r="C710" s="1"/>
     </row>
     <row r="711" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C711" s="11"/>
+      <c r="C711" s="1"/>
     </row>
     <row r="712" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C712" s="11"/>
+      <c r="C712" s="1"/>
     </row>
     <row r="713" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C713" s="11"/>
+      <c r="C713" s="1"/>
     </row>
     <row r="714" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C714" s="11"/>
+      <c r="C714" s="1"/>
     </row>
     <row r="715" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C715" s="11"/>
+      <c r="C715" s="1"/>
     </row>
     <row r="716" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C716" s="11"/>
+      <c r="C716" s="1"/>
     </row>
     <row r="717" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C717" s="11"/>
+      <c r="C717" s="1"/>
     </row>
     <row r="718" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C718" s="11"/>
+      <c r="C718" s="1"/>
     </row>
     <row r="719" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C719" s="11"/>
+      <c r="C719" s="1"/>
     </row>
     <row r="720" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C720" s="11"/>
+      <c r="C720" s="1"/>
     </row>
     <row r="721" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C721" s="11"/>
+      <c r="C721" s="1"/>
     </row>
     <row r="722" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C722" s="11"/>
+      <c r="C722" s="1"/>
     </row>
     <row r="723" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C723" s="11"/>
+      <c r="C723" s="1"/>
     </row>
     <row r="724" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C724" s="11"/>
+      <c r="C724" s="1"/>
     </row>
     <row r="725" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C725" s="11"/>
+      <c r="C725" s="1"/>
     </row>
     <row r="726" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C726" s="11"/>
+      <c r="C726" s="1"/>
     </row>
     <row r="727" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C727" s="11"/>
+      <c r="C727" s="1"/>
     </row>
     <row r="728" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C728" s="11"/>
+      <c r="C728" s="1"/>
     </row>
     <row r="729" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C729" s="11"/>
+      <c r="C729" s="1"/>
     </row>
     <row r="730" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C730" s="11"/>
+      <c r="C730" s="1"/>
     </row>
     <row r="731" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C731" s="11"/>
+      <c r="C731" s="1"/>
     </row>
     <row r="732" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C732" s="11"/>
+      <c r="C732" s="1"/>
     </row>
     <row r="733" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C733" s="11"/>
+      <c r="C733" s="1"/>
     </row>
     <row r="734" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C734" s="11"/>
+      <c r="C734" s="1"/>
     </row>
     <row r="735" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C735" s="11"/>
+      <c r="C735" s="1"/>
     </row>
     <row r="736" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C736" s="11"/>
+      <c r="C736" s="1"/>
     </row>
     <row r="737" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C737" s="11"/>
+      <c r="C737" s="1"/>
     </row>
     <row r="738" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C738" s="11"/>
+      <c r="C738" s="1"/>
     </row>
     <row r="739" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C739" s="11"/>
+      <c r="C739" s="1"/>
     </row>
     <row r="740" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C740" s="11"/>
+      <c r="C740" s="1"/>
     </row>
     <row r="741" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C741" s="11"/>
+      <c r="C741" s="1"/>
     </row>
     <row r="742" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C742" s="11"/>
+      <c r="C742" s="1"/>
     </row>
     <row r="743" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C743" s="11"/>
+      <c r="C743" s="1"/>
     </row>
     <row r="744" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C744" s="11"/>
+      <c r="C744" s="1"/>
     </row>
     <row r="745" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C745" s="11"/>
+      <c r="C745" s="1"/>
     </row>
     <row r="746" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C746" s="11"/>
+      <c r="C746" s="1"/>
     </row>
     <row r="747" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C747" s="11"/>
+      <c r="C747" s="1"/>
     </row>
     <row r="748" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C748" s="11"/>
+      <c r="C748" s="1"/>
     </row>
     <row r="749" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C749" s="11"/>
+      <c r="C749" s="1"/>
     </row>
     <row r="750" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C750" s="11"/>
+      <c r="C750" s="1"/>
     </row>
     <row r="751" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C751" s="11"/>
+      <c r="C751" s="1"/>
     </row>
     <row r="752" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C752" s="11"/>
+      <c r="C752" s="1"/>
     </row>
     <row r="753" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C753" s="11"/>
+      <c r="C753" s="1"/>
     </row>
     <row r="754" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C754" s="11"/>
+      <c r="C754" s="1"/>
     </row>
     <row r="755" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C755" s="11"/>
+      <c r="C755" s="1"/>
     </row>
     <row r="756" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C756" s="11"/>
+      <c r="C756" s="1"/>
     </row>
     <row r="757" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C757" s="11"/>
+      <c r="C757" s="1"/>
     </row>
     <row r="758" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C758" s="11"/>
+      <c r="C758" s="1"/>
     </row>
     <row r="759" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C759" s="11"/>
+      <c r="C759" s="1"/>
     </row>
     <row r="760" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C760" s="11"/>
+      <c r="C760" s="1"/>
     </row>
     <row r="761" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C761" s="11"/>
+      <c r="C761" s="1"/>
     </row>
     <row r="762" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C762" s="11"/>
+      <c r="C762" s="1"/>
     </row>
     <row r="763" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C763" s="11"/>
+      <c r="C763" s="1"/>
     </row>
     <row r="764" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C764" s="11"/>
+      <c r="C764" s="1"/>
     </row>
     <row r="765" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C765" s="11"/>
+      <c r="C765" s="1"/>
     </row>
     <row r="766" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C766" s="11"/>
+      <c r="C766" s="1"/>
     </row>
     <row r="767" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C767" s="11"/>
+      <c r="C767" s="1"/>
     </row>
     <row r="768" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C768" s="11"/>
+      <c r="C768" s="1"/>
     </row>
     <row r="769" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C769" s="11"/>
+      <c r="C769" s="1"/>
     </row>
     <row r="770" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C770" s="11"/>
+      <c r="C770" s="1"/>
     </row>
     <row r="771" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C771" s="11"/>
+      <c r="C771" s="1"/>
     </row>
     <row r="772" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C772" s="11"/>
+      <c r="C772" s="1"/>
     </row>
     <row r="773" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C773" s="11"/>
+      <c r="C773" s="1"/>
     </row>
     <row r="774" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C774" s="11"/>
+      <c r="C774" s="1"/>
     </row>
     <row r="775" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C775" s="11"/>
+      <c r="C775" s="1"/>
     </row>
     <row r="776" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C776" s="11"/>
+      <c r="C776" s="1"/>
     </row>
     <row r="777" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C777" s="11"/>
+      <c r="C777" s="1"/>
     </row>
     <row r="778" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C778" s="11"/>
+      <c r="C778" s="1"/>
     </row>
     <row r="779" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C779" s="11"/>
+      <c r="C779" s="1"/>
     </row>
     <row r="780" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C780" s="11"/>
+      <c r="C780" s="1"/>
     </row>
     <row r="781" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C781" s="11"/>
+      <c r="C781" s="1"/>
     </row>
     <row r="782" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C782" s="11"/>
+      <c r="C782" s="1"/>
     </row>
     <row r="783" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C783" s="11"/>
+      <c r="C783" s="1"/>
     </row>
     <row r="784" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C784" s="11"/>
+      <c r="C784" s="1"/>
     </row>
     <row r="785" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C785" s="11"/>
+      <c r="C785" s="1"/>
     </row>
     <row r="786" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C786" s="11"/>
+      <c r="C786" s="1"/>
     </row>
     <row r="787" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C787" s="11"/>
+      <c r="C787" s="1"/>
     </row>
     <row r="788" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C788" s="11"/>
+      <c r="C788" s="1"/>
     </row>
     <row r="789" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C789" s="11"/>
+      <c r="C789" s="1"/>
     </row>
     <row r="790" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C790" s="11"/>
+      <c r="C790" s="1"/>
     </row>
     <row r="791" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C791" s="11"/>
+      <c r="C791" s="1"/>
     </row>
     <row r="792" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C792" s="11"/>
+      <c r="C792" s="1"/>
     </row>
     <row r="793" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C793" s="11"/>
+      <c r="C793" s="1"/>
     </row>
     <row r="794" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C794" s="11"/>
+      <c r="C794" s="1"/>
     </row>
     <row r="795" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C795" s="11"/>
+      <c r="C795" s="1"/>
     </row>
     <row r="796" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C796" s="11"/>
+      <c r="C796" s="1"/>
     </row>
     <row r="797" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C797" s="11"/>
+      <c r="C797" s="1"/>
     </row>
     <row r="798" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C798" s="11"/>
+      <c r="C798" s="1"/>
     </row>
     <row r="799" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C799" s="11"/>
+      <c r="C799" s="1"/>
     </row>
     <row r="800" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C800" s="11"/>
+      <c r="C800" s="1"/>
     </row>
     <row r="801" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C801" s="11"/>
+      <c r="C801" s="1"/>
     </row>
     <row r="802" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C802" s="11"/>
+      <c r="C802" s="1"/>
     </row>
     <row r="803" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C803" s="11"/>
+      <c r="C803" s="1"/>
     </row>
     <row r="804" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C804" s="11"/>
+      <c r="C804" s="1"/>
     </row>
     <row r="805" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C805" s="11"/>
+      <c r="C805" s="1"/>
     </row>
     <row r="806" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C806" s="11"/>
+      <c r="C806" s="1"/>
     </row>
     <row r="807" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C807" s="11"/>
+      <c r="C807" s="1"/>
     </row>
     <row r="808" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C808" s="11"/>
+      <c r="C808" s="1"/>
     </row>
     <row r="809" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C809" s="11"/>
+      <c r="C809" s="1"/>
     </row>
     <row r="810" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C810" s="11"/>
+      <c r="C810" s="1"/>
     </row>
     <row r="811" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C811" s="11"/>
+      <c r="C811" s="1"/>
     </row>
     <row r="812" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C812" s="11"/>
+      <c r="C812" s="1"/>
     </row>
     <row r="813" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C813" s="11"/>
+      <c r="C813" s="1"/>
     </row>
     <row r="814" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C814" s="11"/>
+      <c r="C814" s="1"/>
     </row>
     <row r="815" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C815" s="11"/>
+      <c r="C815" s="1"/>
     </row>
     <row r="816" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C816" s="11"/>
+      <c r="C816" s="1"/>
     </row>
     <row r="817" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C817" s="11"/>
+      <c r="C817" s="1"/>
     </row>
     <row r="818" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C818" s="11"/>
+      <c r="C818" s="1"/>
     </row>
     <row r="819" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C819" s="11"/>
+      <c r="C819" s="1"/>
     </row>
     <row r="820" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C820" s="11"/>
+      <c r="C820" s="1"/>
     </row>
     <row r="821" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C821" s="11"/>
+      <c r="C821" s="1"/>
     </row>
     <row r="822" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C822" s="11"/>
+      <c r="C822" s="1"/>
     </row>
     <row r="823" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C823" s="11"/>
+      <c r="C823" s="1"/>
     </row>
     <row r="824" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C824" s="11"/>
+      <c r="C824" s="1"/>
     </row>
     <row r="825" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C825" s="11"/>
+      <c r="C825" s="1"/>
     </row>
     <row r="826" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C826" s="11"/>
+      <c r="C826" s="1"/>
     </row>
     <row r="827" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C827" s="11"/>
+      <c r="C827" s="1"/>
     </row>
     <row r="828" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C828" s="11"/>
+      <c r="C828" s="1"/>
     </row>
     <row r="829" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C829" s="11"/>
+      <c r="C829" s="1"/>
     </row>
     <row r="830" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C830" s="11"/>
+      <c r="C830" s="1"/>
     </row>
     <row r="831" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C831" s="11"/>
+      <c r="C831" s="1"/>
     </row>
     <row r="832" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C832" s="11"/>
+      <c r="C832" s="1"/>
     </row>
     <row r="833" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C833" s="11"/>
+      <c r="C833" s="1"/>
     </row>
     <row r="834" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C834" s="11"/>
+      <c r="C834" s="1"/>
     </row>
     <row r="835" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C835" s="11"/>
+      <c r="C835" s="1"/>
     </row>
     <row r="836" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C836" s="11"/>
+      <c r="C836" s="1"/>
     </row>
     <row r="837" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C837" s="11"/>
+      <c r="C837" s="1"/>
     </row>
     <row r="838" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C838" s="11"/>
+      <c r="C838" s="1"/>
     </row>
     <row r="839" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C839" s="11"/>
+      <c r="C839" s="1"/>
     </row>
     <row r="840" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C840" s="11"/>
+      <c r="C840" s="1"/>
     </row>
     <row r="841" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C841" s="11"/>
+      <c r="C841" s="1"/>
     </row>
     <row r="842" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C842" s="11"/>
+      <c r="C842" s="1"/>
     </row>
     <row r="843" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C843" s="11"/>
+      <c r="C843" s="1"/>
     </row>
     <row r="844" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C844" s="11"/>
+      <c r="C844" s="1"/>
     </row>
     <row r="845" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C845" s="11"/>
+      <c r="C845" s="1"/>
     </row>
     <row r="846" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C846" s="11"/>
+      <c r="C846" s="1"/>
     </row>
     <row r="847" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C847" s="11"/>
+      <c r="C847" s="1"/>
     </row>
     <row r="848" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C848" s="11"/>
+      <c r="C848" s="1"/>
     </row>
     <row r="849" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C849" s="11"/>
+      <c r="C849" s="1"/>
     </row>
     <row r="850" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C850" s="11"/>
+      <c r="C850" s="1"/>
     </row>
     <row r="851" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C851" s="11"/>
+      <c r="C851" s="1"/>
     </row>
     <row r="852" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C852" s="11"/>
+      <c r="C852" s="1"/>
     </row>
     <row r="853" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C853" s="11"/>
+      <c r="C853" s="1"/>
     </row>
     <row r="854" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C854" s="11"/>
+      <c r="C854" s="1"/>
     </row>
     <row r="855" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C855" s="11"/>
+      <c r="C855" s="1"/>
     </row>
     <row r="856" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C856" s="11"/>
+      <c r="C856" s="1"/>
     </row>
     <row r="857" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C857" s="11"/>
+      <c r="C857" s="1"/>
     </row>
     <row r="858" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C858" s="11"/>
+      <c r="C858" s="1"/>
     </row>
     <row r="859" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C859" s="11"/>
+      <c r="C859" s="1"/>
     </row>
     <row r="860" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C860" s="11"/>
+      <c r="C860" s="1"/>
     </row>
     <row r="861" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C861" s="11"/>
+      <c r="C861" s="1"/>
     </row>
     <row r="862" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C862" s="11"/>
+      <c r="C862" s="1"/>
     </row>
     <row r="863" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C863" s="11"/>
+      <c r="C863" s="1"/>
     </row>
     <row r="864" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C864" s="11"/>
+      <c r="C864" s="1"/>
     </row>
     <row r="865" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C865" s="11"/>
+      <c r="C865" s="1"/>
     </row>
     <row r="866" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C866" s="11"/>
+      <c r="C866" s="1"/>
     </row>
     <row r="867" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C867" s="11"/>
+      <c r="C867" s="1"/>
     </row>
     <row r="868" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C868" s="11"/>
+      <c r="C868" s="1"/>
     </row>
     <row r="869" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C869" s="11"/>
+      <c r="C869" s="1"/>
     </row>
     <row r="870" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C870" s="11"/>
+      <c r="C870" s="1"/>
     </row>
     <row r="871" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C871" s="11"/>
+      <c r="C871" s="1"/>
     </row>
     <row r="872" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C872" s="11"/>
+      <c r="C872" s="1"/>
     </row>
     <row r="873" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C873" s="11"/>
+      <c r="C873" s="1"/>
     </row>
     <row r="874" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C874" s="11"/>
+      <c r="C874" s="1"/>
     </row>
     <row r="875" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C875" s="11"/>
+      <c r="C875" s="1"/>
     </row>
     <row r="876" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C876" s="11"/>
+      <c r="C876" s="1"/>
     </row>
     <row r="877" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C877" s="11"/>
+      <c r="C877" s="1"/>
     </row>
     <row r="878" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C878" s="11"/>
+      <c r="C878" s="1"/>
     </row>
     <row r="879" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C879" s="11"/>
+      <c r="C879" s="1"/>
     </row>
     <row r="880" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C880" s="11"/>
+      <c r="C880" s="1"/>
     </row>
     <row r="881" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C881" s="11"/>
+      <c r="C881" s="1"/>
     </row>
     <row r="882" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C882" s="11"/>
+      <c r="C882" s="1"/>
     </row>
     <row r="883" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C883" s="11"/>
+      <c r="C883" s="1"/>
     </row>
     <row r="884" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C884" s="11"/>
+      <c r="C884" s="1"/>
     </row>
     <row r="885" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C885" s="11"/>
+      <c r="C885" s="1"/>
     </row>
     <row r="886" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C886" s="11"/>
+      <c r="C886" s="1"/>
     </row>
     <row r="887" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C887" s="11"/>
+      <c r="C887" s="1"/>
     </row>
     <row r="888" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C888" s="11"/>
+      <c r="C888" s="1"/>
     </row>
     <row r="889" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C889" s="11"/>
+      <c r="C889" s="1"/>
     </row>
     <row r="890" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C890" s="11"/>
+      <c r="C890" s="1"/>
     </row>
     <row r="891" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C891" s="11"/>
+      <c r="C891" s="1"/>
     </row>
     <row r="892" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C892" s="11"/>
+      <c r="C892" s="1"/>
     </row>
     <row r="893" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C893" s="11"/>
+      <c r="C893" s="1"/>
     </row>
     <row r="894" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C894" s="11"/>
+      <c r="C894" s="1"/>
     </row>
     <row r="895" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C895" s="11"/>
+      <c r="C895" s="1"/>
     </row>
     <row r="896" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C896" s="11"/>
+      <c r="C896" s="1"/>
     </row>
     <row r="897" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C897" s="11"/>
+      <c r="C897" s="1"/>
     </row>
     <row r="898" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C898" s="11"/>
+      <c r="C898" s="1"/>
     </row>
     <row r="899" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C899" s="11"/>
+      <c r="C899" s="1"/>
     </row>
     <row r="900" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C900" s="11"/>
+      <c r="C900" s="1"/>
     </row>
     <row r="901" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C901" s="11"/>
+      <c r="C901" s="1"/>
     </row>
     <row r="902" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C902" s="11"/>
+      <c r="C902" s="1"/>
     </row>
     <row r="903" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C903" s="11"/>
+      <c r="C903" s="1"/>
     </row>
     <row r="904" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C904" s="11"/>
+      <c r="C904" s="1"/>
     </row>
     <row r="905" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C905" s="11"/>
+      <c r="C905" s="1"/>
     </row>
     <row r="906" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C906" s="11"/>
+      <c r="C906" s="1"/>
     </row>
     <row r="907" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C907" s="11"/>
+      <c r="C907" s="1"/>
     </row>
     <row r="908" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C908" s="11"/>
+      <c r="C908" s="1"/>
     </row>
     <row r="909" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C909" s="11"/>
+      <c r="C909" s="1"/>
     </row>
     <row r="910" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C910" s="11"/>
+      <c r="C910" s="1"/>
     </row>
     <row r="911" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C911" s="11"/>
+      <c r="C911" s="1"/>
     </row>
     <row r="912" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C912" s="11"/>
+      <c r="C912" s="1"/>
     </row>
     <row r="913" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C913" s="11"/>
+      <c r="C913" s="1"/>
     </row>
     <row r="914" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C914" s="11"/>
+      <c r="C914" s="1"/>
     </row>
     <row r="915" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C915" s="11"/>
+      <c r="C915" s="1"/>
     </row>
     <row r="916" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C916" s="11"/>
+      <c r="C916" s="1"/>
     </row>
     <row r="917" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C917" s="11"/>
+      <c r="C917" s="1"/>
     </row>
     <row r="918" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C918" s="11"/>
+      <c r="C918" s="1"/>
     </row>
     <row r="919" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C919" s="11"/>
+      <c r="C919" s="1"/>
     </row>
     <row r="920" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C920" s="11"/>
+      <c r="C920" s="1"/>
     </row>
     <row r="921" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C921" s="11"/>
+      <c r="C921" s="1"/>
     </row>
     <row r="922" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C922" s="11"/>
+      <c r="C922" s="1"/>
     </row>
     <row r="923" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C923" s="11"/>
+      <c r="C923" s="1"/>
     </row>
     <row r="924" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C924" s="11"/>
+      <c r="C924" s="1"/>
     </row>
     <row r="925" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C925" s="11"/>
+      <c r="C925" s="1"/>
     </row>
     <row r="926" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C926" s="11"/>
+      <c r="C926" s="1"/>
     </row>
     <row r="927" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C927" s="11"/>
+      <c r="C927" s="1"/>
     </row>
     <row r="928" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C928" s="11"/>
+      <c r="C928" s="1"/>
     </row>
     <row r="929" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C929" s="11"/>
+      <c r="C929" s="1"/>
     </row>
     <row r="930" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C930" s="11"/>
+      <c r="C930" s="1"/>
     </row>
     <row r="931" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C931" s="11"/>
+      <c r="C931" s="1"/>
     </row>
     <row r="932" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C932" s="11"/>
+      <c r="C932" s="1"/>
     </row>
     <row r="933" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C933" s="11"/>
+      <c r="C933" s="1"/>
     </row>
     <row r="934" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C934" s="11"/>
+      <c r="C934" s="1"/>
     </row>
     <row r="935" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C935" s="11"/>
+      <c r="C935" s="1"/>
     </row>
     <row r="936" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C936" s="11"/>
+      <c r="C936" s="1"/>
     </row>
     <row r="937" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C937" s="11"/>
+      <c r="C937" s="1"/>
     </row>
     <row r="938" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C938" s="11"/>
+      <c r="C938" s="1"/>
     </row>
     <row r="939" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C939" s="11"/>
+      <c r="C939" s="1"/>
     </row>
     <row r="940" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C940" s="11"/>
+      <c r="C940" s="1"/>
     </row>
     <row r="941" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C941" s="11"/>
+      <c r="C941" s="1"/>
     </row>
     <row r="942" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C942" s="11"/>
+      <c r="C942" s="1"/>
     </row>
     <row r="943" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C943" s="11"/>
+      <c r="C943" s="1"/>
     </row>
     <row r="944" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C944" s="11"/>
+      <c r="C944" s="1"/>
     </row>
     <row r="945" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C945" s="11"/>
+      <c r="C945" s="1"/>
     </row>
     <row r="946" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C946" s="11"/>
+      <c r="C946" s="1"/>
     </row>
     <row r="947" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C947" s="11"/>
+      <c r="C947" s="1"/>
     </row>
     <row r="948" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C948" s="11"/>
+      <c r="C948" s="1"/>
     </row>
     <row r="949" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C949" s="11"/>
+      <c r="C949" s="1"/>
     </row>
     <row r="950" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C950" s="11"/>
+      <c r="C950" s="1"/>
     </row>
     <row r="951" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C951" s="11"/>
+      <c r="C951" s="1"/>
     </row>
     <row r="952" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C952" s="11"/>
+      <c r="C952" s="1"/>
     </row>
     <row r="953" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C953" s="11"/>
+      <c r="C953" s="1"/>
     </row>
     <row r="954" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C954" s="11"/>
+      <c r="C954" s="1"/>
     </row>
     <row r="955" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C955" s="11"/>
+      <c r="C955" s="1"/>
     </row>
     <row r="956" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C956" s="11"/>
+      <c r="C956" s="1"/>
     </row>
     <row r="957" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C957" s="11"/>
+      <c r="C957" s="1"/>
     </row>
     <row r="958" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C958" s="11"/>
+      <c r="C958" s="1"/>
     </row>
     <row r="959" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C959" s="11"/>
+      <c r="C959" s="1"/>
     </row>
     <row r="960" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C960" s="11"/>
+      <c r="C960" s="1"/>
     </row>
     <row r="961" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C961" s="11"/>
+      <c r="C961" s="1"/>
     </row>
     <row r="962" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C962" s="11"/>
+      <c r="C962" s="1"/>
     </row>
     <row r="963" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C963" s="11"/>
+      <c r="C963" s="1"/>
     </row>
     <row r="964" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C964" s="11"/>
+      <c r="C964" s="1"/>
     </row>
     <row r="965" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C965" s="11"/>
+      <c r="C965" s="1"/>
     </row>
     <row r="966" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C966" s="11"/>
+      <c r="C966" s="1"/>
     </row>
     <row r="967" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C967" s="11"/>
+      <c r="C967" s="1"/>
     </row>
     <row r="968" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C968" s="11"/>
+      <c r="C968" s="1"/>
     </row>
     <row r="969" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C969" s="11"/>
+      <c r="C969" s="1"/>
     </row>
     <row r="970" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C970" s="11"/>
+      <c r="C970" s="1"/>
     </row>
     <row r="971" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C971" s="11"/>
+      <c r="C971" s="1"/>
     </row>
     <row r="972" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C972" s="11"/>
+      <c r="C972" s="1"/>
     </row>
     <row r="973" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C973" s="11"/>
+      <c r="C973" s="1"/>
     </row>
     <row r="974" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C974" s="11"/>
+      <c r="C974" s="1"/>
     </row>
     <row r="975" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C975" s="11"/>
+      <c r="C975" s="1"/>
     </row>
     <row r="976" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C976" s="11"/>
+      <c r="C976" s="1"/>
     </row>
     <row r="977" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C977" s="11"/>
+      <c r="C977" s="1"/>
     </row>
     <row r="978" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C978" s="11"/>
+      <c r="C978" s="1"/>
     </row>
     <row r="979" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C979" s="11"/>
+      <c r="C979" s="1"/>
     </row>
     <row r="980" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C980" s="11"/>
+      <c r="C980" s="1"/>
     </row>
     <row r="981" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C981" s="11"/>
+      <c r="C981" s="1"/>
     </row>
     <row r="982" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C982" s="11"/>
+      <c r="C982" s="1"/>
     </row>
     <row r="983" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C983" s="11"/>
+      <c r="C983" s="1"/>
     </row>
     <row r="984" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C984" s="11"/>
+      <c r="C984" s="1"/>
     </row>
     <row r="985" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C985" s="11"/>
+      <c r="C985" s="1"/>
     </row>
     <row r="986" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C986" s="11"/>
+      <c r="C986" s="1"/>
     </row>
     <row r="987" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C987" s="11"/>
+      <c r="C987" s="1"/>
     </row>
     <row r="988" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C988" s="11"/>
+      <c r="C988" s="1"/>
     </row>
     <row r="989" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C989" s="11"/>
+      <c r="C989" s="1"/>
     </row>
     <row r="990" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C990" s="11"/>
+      <c r="C990" s="1"/>
     </row>
     <row r="991" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C991" s="11"/>
+      <c r="C991" s="1"/>
     </row>
     <row r="992" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C992" s="11"/>
+      <c r="C992" s="1"/>
     </row>
     <row r="993" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C993" s="11"/>
+      <c r="C993" s="1"/>
     </row>
     <row r="994" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C994" s="11"/>
+      <c r="C994" s="1"/>
     </row>
     <row r="995" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C995" s="11"/>
+      <c r="C995" s="1"/>
     </row>
     <row r="996" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C996" s="11"/>
+      <c r="C996" s="1"/>
     </row>
     <row r="997" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C997" s="11"/>
+      <c r="C997" s="1"/>
     </row>
     <row r="998" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C998" s="11"/>
+      <c r="C998" s="1"/>
     </row>
     <row r="999" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C999" s="11"/>
+      <c r="C999" s="1"/>
     </row>
     <row r="1000" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1000" s="11"/>
+      <c r="C1000" s="1"/>
     </row>
     <row r="1001" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1001" s="11"/>
+      <c r="C1001" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
